--- a/resource/Tests.xlsx
+++ b/resource/Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B0504-F5C8-442D-B580-D37CDBDEEE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359EAFF-76FC-44AA-A06E-A43AB7103C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Метод схрещ</t>
   </si>
@@ -81,10 +81,28 @@
     <t>Ініціалізація</t>
   </si>
   <si>
-    <t>Тест мутації</t>
-  </si>
-  <si>
     <t>Номер середнього</t>
+  </si>
+  <si>
+    <t>Тест мутації одного гену</t>
+  </si>
+  <si>
+    <t>Тест мутації всіх генів</t>
+  </si>
+  <si>
+    <t>Тест кросоверу</t>
+  </si>
+  <si>
+    <t>Тест елітизму</t>
+  </si>
+  <si>
+    <t>Тест вибірок</t>
+  </si>
+  <si>
+    <t>ранжування</t>
+  </si>
+  <si>
+    <t>турнір</t>
   </si>
 </sst>
 </file>
@@ -154,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,11 +195,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,17 +247,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +262,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,16 +623,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -637,27 +704,27 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>0.2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12">
         <v>0.4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11">
         <v>0.6</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -983,411 +1050,1229 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="e">
+        <f>AVERAGE(D13:D15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="9" t="e">
+        <f>AVERAGE(E13:E15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="9" t="e">
+        <f>AVERAGE(F13:F15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="9" t="e">
+        <f>AVERAGE(G13:G15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="e">
+        <f>(E18-F18)/(D18-C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <f>F2</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="e">
+        <f>AVERAGE(C18:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="9" t="e">
+        <f>AVERAGE(D18:D20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="9" t="e">
+        <f>AVERAGE(E18:E20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="9" t="e">
+        <f>AVERAGE(F18:F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="9" t="e">
+        <f>AVERAGE(G18:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="e">
+        <f>(E23-F23)/(D23-C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="e">
+        <f t="shared" ref="G24:G25" si="3">(E24-F24)/(D24-C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="e">
+        <f>AVERAGE(C23:C25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f>AVERAGE(D23:D25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="9" t="e">
+        <f>AVERAGE(E23:E25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="9" t="e">
+        <f>AVERAGE(F23:F25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="9" t="e">
+        <f>AVERAGE(G23:G25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="e">
+        <f>(E28-F28)/(D28-C28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="e">
+        <f t="shared" ref="G29:G30" si="4">(E29-F29)/(D29-C29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="e">
+        <f>AVERAGE(C28:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="9" t="e">
+        <f>AVERAGE(D28:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="9" t="e">
+        <f>AVERAGE(E28:E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="9" t="e">
+        <f>AVERAGE(F28:F30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="9" t="e">
+        <f>AVERAGE(G28:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5">
+        <v>13</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="e">
+        <f>(E33-F33)/(D33-C33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="e">
+        <f t="shared" ref="G34:G35" si="5">(E34-F34)/(D34-C34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="e">
+        <f>AVERAGE(C33:C35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="9" t="e">
+        <f>AVERAGE(D33:D35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="9" t="e">
+        <f>AVERAGE(E33:E35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="9" t="e">
+        <f>AVERAGE(F33:F35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="9" t="e">
+        <f>AVERAGE(G33:G35)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="e">
+        <f>(E38-F38)/(D38-C38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5">
         <v>17</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="e">
+        <f t="shared" ref="G39:G40" si="6">(E39-F39)/(D39-C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>6</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="e">
+        <f>AVERAGE(C38:C40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="9" t="e">
+        <f>AVERAGE(D38:D40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="9" t="e">
+        <f>AVERAGE(E38:E40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="9" t="e">
+        <f>AVERAGE(F38:F40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="9" t="e">
+        <f>AVERAGE(G38:G40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5">
+        <v>19</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="e">
+        <f>(E43-F43)/(D43-C43)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5">
+        <v>20</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="e">
+        <f t="shared" ref="G44:G45" si="7">(E44-F44)/(D44-C44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>7</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="e">
+        <f>AVERAGE(C43:C45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="9" t="e">
+        <f>AVERAGE(D43:D45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="9" t="e">
+        <f>AVERAGE(E43:E45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="9" t="e">
+        <f>AVERAGE(F43:F45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="9" t="e">
+        <f>AVERAGE(G43:G45)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="e">
+        <f>(E48-F48)/(D48-C48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5">
+        <v>23</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="e">
+        <f t="shared" ref="G49:G50" si="8">(E49-F49)/(D49-C49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5">
+        <v>24</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>8</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="e">
+        <f>AVERAGE(C48:C50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="9" t="e">
+        <f>AVERAGE(D48:D50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="9" t="e">
+        <f>AVERAGE(E48:E50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="9" t="e">
+        <f>AVERAGE(F48:F50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="9" t="e">
+        <f>AVERAGE(G48:G50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5">
+        <v>25</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="e">
+        <f>(E53-F53)/(D53-C53)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="e">
+        <f t="shared" ref="G54:G55" si="9">(E54-F54)/(D54-C54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5">
+        <v>27</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>9</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="e">
+        <f>AVERAGE(C53:C55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" s="9" t="e">
+        <f>AVERAGE(D53:D55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="9" t="e">
+        <f>AVERAGE(E53:E55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="9" t="e">
+        <f>AVERAGE(F53:F55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="9" t="e">
+        <f>AVERAGE(G53:G55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5">
+        <v>28</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="e">
+        <f>(E58-F58)/(D58-C58)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5">
+        <v>29</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="e">
+        <f t="shared" ref="G59:G60" si="10">(E59-F59)/(D59-C59)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5">
+        <v>30</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>10</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="e">
+        <f>AVERAGE(C58:C60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="9" t="e">
+        <f>AVERAGE(D58:D60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E61" s="9" t="e">
+        <f>AVERAGE(E58:E60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="9" t="e">
+        <f>AVERAGE(F58:F60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="9" t="e">
+        <f>AVERAGE(G58:G60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="15">
         <v>0.2</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5">
+        <v>31</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5" t="e">
+        <f>(E63-F63)/(D63-C63)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5">
+        <v>32</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="e">
+        <f t="shared" ref="G64:G65" si="11">(E64-F64)/(D64-C64)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5">
+        <v>33</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="e">
+        <f>AVERAGE(C63:C65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D66" s="9" t="e">
+        <f>AVERAGE(D63:D65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E66" s="9" t="e">
+        <f>AVERAGE(E63:E65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="9" t="e">
+        <f>AVERAGE(F63:F65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="9" t="e">
+        <f>AVERAGE(G63:G65)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5">
+        <v>34</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5" t="e">
+        <f>(E68-F68)/(D68-C68)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5">
+        <v>35</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5" t="e">
+        <f t="shared" ref="G69:G70" si="12">(E69-F69)/(D69-C69)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5">
+        <v>36</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="e">
+        <f>AVERAGE(C68:C70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D71" s="9" t="e">
+        <f>AVERAGE(D68:D70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71" s="9" t="e">
+        <f>AVERAGE(E68:E70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" s="9" t="e">
+        <f>AVERAGE(F68:F70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="9" t="e">
+        <f>AVERAGE(G68:G70)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5">
+        <v>37</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="e">
+        <f>(E73-F73)/(D73-C73)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5">
+        <v>38</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5" t="e">
+        <f t="shared" ref="G74:G75" si="13">(E74-F74)/(D74-C74)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5">
+        <v>39</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D13" s="7">
-        <v>566.51900000000001</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1178</v>
-      </c>
-      <c r="F13" s="7">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7">
-        <f>(E13-F13)/(D13-C13)</f>
-        <v>2.0592447905168778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D14" s="7">
-        <v>517.625</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1186</v>
-      </c>
-      <c r="F14" s="7">
-        <v>31</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" ref="G14:G16" si="3">(E14-F14)/(D14-C14)</f>
-        <v>2.2331527476479391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.378</v>
-      </c>
-      <c r="D15" s="7">
-        <v>520.41399999999999</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1187</v>
-      </c>
-      <c r="F15" s="7">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="3"/>
-        <v>2.2594589605335016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D16" s="7">
-        <v>492.60899999999998</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1191</v>
-      </c>
-      <c r="F16" s="7">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="3"/>
-        <v>2.3445086893099343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12">
-        <f t="shared" ref="C17" si="4">AVERAGE(C13:C16)</f>
-        <v>0.371</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" ref="D17" si="5">AVERAGE(D13:D16)</f>
-        <v>524.29174999999998</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" ref="E17" si="6">AVERAGE(E13:E16)</f>
-        <v>1185.5</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" ref="F17" si="7">AVERAGE(F13:F16)</f>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="e">
+        <f>AVERAGE(C73:C75)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="9" t="e">
+        <f>AVERAGE(D73:D75)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E76" s="9" t="e">
+        <f>AVERAGE(E73:E75)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F76" s="9" t="e">
+        <f>AVERAGE(F73:F75)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G76" s="9" t="e">
+        <f>AVERAGE(G73:G75)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="12">
-        <f t="shared" ref="G17" si="8">AVERAGE(G13:G16)</f>
-        <v>2.2240912970020634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.496</v>
-      </c>
-      <c r="D19" s="10">
-        <v>558.33799999999997</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1190</v>
-      </c>
-      <c r="F19" s="10">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10">
-        <f>(E19-F19)/(D19-C19)</f>
-        <v>2.1224647839352362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D20" s="10">
-        <v>519.62699999999995</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1191</v>
-      </c>
-      <c r="F20" s="10">
-        <v>21</v>
-      </c>
-      <c r="G20" s="10">
-        <f>(E20-F20)/(D20-C20)</f>
-        <v>2.2533279921114264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="D21" s="10">
-        <v>545.73500000000001</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1179</v>
-      </c>
-      <c r="F21" s="10">
-        <v>20</v>
-      </c>
-      <c r="G21" s="10">
-        <f>(E21-F21)/(D21-C21)</f>
-        <v>2.1253419985183117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D22" s="10">
-        <v>499.51499999999999</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1188</v>
-      </c>
-      <c r="F22" s="10">
-        <v>16</v>
-      </c>
-      <c r="G22" s="10">
-        <f>(E22-F22)/(D22-C22)</f>
-        <v>2.3478504747786371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>2</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13">
-        <f>AVERAGE(C19:C22)</f>
-        <v>0.40925</v>
-      </c>
-      <c r="D23" s="12">
-        <f>AVERAGE(D19:D22)</f>
-        <v>530.80374999999992</v>
-      </c>
-      <c r="E23" s="12">
-        <f>AVERAGE(E19:E22)</f>
-        <v>1187</v>
-      </c>
-      <c r="F23" s="12">
-        <f>AVERAGE(F19:F22)</f>
-        <v>15.75</v>
-      </c>
-      <c r="G23" s="12">
-        <f>AVERAGE(G19:G22)</f>
-        <v>2.2122463123359029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="D25" s="7">
-        <v>576.90599999999995</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1185</v>
-      </c>
-      <c r="F25" s="7">
-        <v>116</v>
-      </c>
-      <c r="G25" s="7">
-        <f>(E25-F25)/(D25-C25)</f>
-        <v>1.8546631157993356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
-        <v>10</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D26" s="7">
-        <v>549.55899999999997</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1188</v>
-      </c>
-      <c r="F26" s="7">
-        <v>117</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" ref="G26:G28" si="9">(E26-F26)/(D26-C26)</f>
-        <v>1.9503471836513198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.379</v>
-      </c>
-      <c r="D27" s="7">
-        <v>553.48099999999999</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1196</v>
-      </c>
-      <c r="F27" s="7">
-        <v>124</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="9"/>
-        <v>1.9381596884480621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D28" s="7">
-        <v>558.87</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1194</v>
-      </c>
-      <c r="F28" s="7">
-        <v>136</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="9"/>
-        <v>1.8943429333667559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>3</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12">
-        <f t="shared" ref="C29" si="10">AVERAGE(C25:C28)</f>
-        <v>0.42275000000000001</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" ref="D29" si="11">AVERAGE(D25:D28)</f>
-        <v>559.70399999999995</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" ref="E29" si="12">AVERAGE(E25:E28)</f>
-        <v>1190.75</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" ref="F29" si="13">AVERAGE(F25:F28)</f>
-        <v>123.25</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" ref="G29" si="14">AVERAGE(G25:G28)</f>
-        <v>1.9093782303163684</v>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5">
+        <v>40</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="e">
+        <f>(E78-F78)/(D78-C78)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5">
+        <v>41</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="e">
+        <f t="shared" ref="G79:G80" si="14">(E79-F79)/(D79-C79)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5">
+        <v>42</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>14</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9" t="e">
+        <f>AVERAGE(C78:C80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D81" s="9" t="e">
+        <f>AVERAGE(D78:D80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E81" s="9" t="e">
+        <f>AVERAGE(E78:E80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="9" t="e">
+        <f>AVERAGE(F78:F80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G81" s="9" t="e">
+        <f>AVERAGE(G78:G80)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5">
+        <v>43</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="e">
+        <f>(E83-F83)/(D83-C83)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5">
+        <v>44</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5" t="e">
+        <f t="shared" ref="G84:G85" si="15">(E84-F84)/(D84-C84)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5">
+        <v>45</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>15</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9" t="e">
+        <f>AVERAGE(C83:C85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D86" s="9" t="e">
+        <f>AVERAGE(D83:D85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E86" s="9" t="e">
+        <f>AVERAGE(E83:E85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F86" s="9" t="e">
+        <f>AVERAGE(F83:F85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G86" s="9" t="e">
+        <f>AVERAGE(G83:G85)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resource/Tests.xlsx
+++ b/resource/Tests.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1257B8-A55F-4E97-BC07-E2AF1EF80C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE7691-C3BE-4C87-A5FB-0C628D24C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Island Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="40">
   <si>
     <t>Поч час</t>
   </si>
@@ -130,6 +131,24 @@
   </si>
   <si>
     <t>Init</t>
+  </si>
+  <si>
+    <t>N islands</t>
+  </si>
+  <si>
+    <t>step params</t>
+  </si>
+  <si>
+    <t>it mig</t>
+  </si>
+  <si>
+    <t>P mig</t>
+  </si>
+  <si>
+    <t>0,15</t>
+  </si>
+  <si>
+    <t>0,25</t>
   </si>
 </sst>
 </file>
@@ -600,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4219,4 +4238,2578 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75560F83-0876-44AE-9F8C-C1FC50E0A0E2}">
+  <dimension ref="A1:V49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>500</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="17">
+        <v>6</v>
+      </c>
+      <c r="O2" s="9">
+        <v>2</v>
+      </c>
+      <c r="P2" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="2" t="e">
+        <f>(T2-U2)/(S2-R2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>500</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="17">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="e">
+        <f>(T3-U3)/(S3-R3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>500</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="17">
+        <v>6</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="e">
+        <f>(T4-U4)/(S4-R4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7" t="e">
+        <f>AVERAGE(R2:R4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="6" t="e">
+        <f>AVERAGE(S2:S4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="6" t="e">
+        <f>AVERAGE(T2:T4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="6" t="e">
+        <f>AVERAGE(U2:U4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" s="6" t="e">
+        <f>AVERAGE(V2:V4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>500</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="17">
+        <v>12</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="2" t="e">
+        <f>(T6-U6)/(S6-R6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>500</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="17">
+        <v>12</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="e">
+        <f>(T7-U7)/(S7-R7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>500</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="17">
+        <v>12</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="e">
+        <f>(T8-U8)/(S8-R8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7" t="e">
+        <f>AVERAGE(R6:R8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" s="6" t="e">
+        <f>AVERAGE(S6:S8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="6" t="e">
+        <f>AVERAGE(T6:T8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="6" t="e">
+        <f>AVERAGE(U6:U8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="6" t="e">
+        <f>AVERAGE(V6:V8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>500</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="17">
+        <v>18</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2</v>
+      </c>
+      <c r="P10" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="2" t="e">
+        <f>(T10-U10)/(S10-R10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>500</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="17">
+        <v>18</v>
+      </c>
+      <c r="O11" s="9">
+        <v>2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="e">
+        <f>(T11-U11)/(S11-R11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>500</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="17">
+        <v>18</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2" t="e">
+        <f>(T12-U12)/(S12-R12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7" t="e">
+        <f>AVERAGE(R10:R12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" s="6" t="e">
+        <f>AVERAGE(S10:S12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="6" t="e">
+        <f>AVERAGE(T10:T12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="6" t="e">
+        <f>AVERAGE(U10:U12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="6" t="e">
+        <f>AVERAGE(V10:V12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9">
+        <v>500</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="18">
+        <v>6</v>
+      </c>
+      <c r="O14" s="17">
+        <v>3</v>
+      </c>
+      <c r="P14" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="2" t="e">
+        <f>(T14-U14)/(S14-R14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9">
+        <v>500</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="18">
+        <v>6</v>
+      </c>
+      <c r="O15" s="17">
+        <v>3</v>
+      </c>
+      <c r="P15" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="e">
+        <f>(T15-U15)/(S15-R15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9">
+        <v>500</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="18">
+        <v>6</v>
+      </c>
+      <c r="O16" s="17">
+        <v>3</v>
+      </c>
+      <c r="P16" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="e">
+        <f>(T16-U16)/(S16-R16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7" t="e">
+        <f>AVERAGE(R14:R16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="6" t="e">
+        <f>AVERAGE(S14:S16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="6" t="e">
+        <f>AVERAGE(T14:T16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="6" t="e">
+        <f>AVERAGE(U14:U16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="6" t="e">
+        <f>AVERAGE(V14:V16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>500</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="18">
+        <v>6</v>
+      </c>
+      <c r="O18" s="17">
+        <v>5</v>
+      </c>
+      <c r="P18" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="2" t="e">
+        <f>(T18-U18)/(S18-R18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
+        <v>500</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="18">
+        <v>6</v>
+      </c>
+      <c r="O19" s="17">
+        <v>5</v>
+      </c>
+      <c r="P19" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2" t="e">
+        <f>(T19-U19)/(S19-R19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9">
+        <v>500</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="18">
+        <v>6</v>
+      </c>
+      <c r="O20" s="17">
+        <v>5</v>
+      </c>
+      <c r="P20" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="e">
+        <f>(T20-U20)/(S20-R20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7" t="e">
+        <f>AVERAGE(R18:R20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="6" t="e">
+        <f>AVERAGE(S18:S20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="6" t="e">
+        <f>AVERAGE(T18:T20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="6" t="e">
+        <f>AVERAGE(U18:U20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="6" t="e">
+        <f>AVERAGE(V18:V20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9">
+        <v>500</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="18">
+        <v>6</v>
+      </c>
+      <c r="O22" s="17">
+        <v>7</v>
+      </c>
+      <c r="P22" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="2" t="e">
+        <f>(T22-U22)/(S22-R22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9">
+        <v>500</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="18">
+        <v>6</v>
+      </c>
+      <c r="O23" s="17">
+        <v>7</v>
+      </c>
+      <c r="P23" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="e">
+        <f>(T23-U23)/(S23-R23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9">
+        <v>500</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="18">
+        <v>6</v>
+      </c>
+      <c r="O24" s="17">
+        <v>7</v>
+      </c>
+      <c r="P24" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2" t="e">
+        <f>(T24-U24)/(S24-R24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7" t="e">
+        <f>AVERAGE(R22:R24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="6" t="e">
+        <f>AVERAGE(S22:S24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="6" t="e">
+        <f>AVERAGE(T22:T24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="6" t="e">
+        <f>AVERAGE(U22:U24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="6" t="e">
+        <f>AVERAGE(V22:V24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9">
+        <v>500</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="18">
+        <v>6</v>
+      </c>
+      <c r="O26" s="18">
+        <v>7</v>
+      </c>
+      <c r="P26" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="2" t="e">
+        <f>(T26-U26)/(S26-R26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>20</v>
+      </c>
+      <c r="C27" s="9">
+        <v>500</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="18">
+        <v>6</v>
+      </c>
+      <c r="O27" s="18">
+        <v>7</v>
+      </c>
+      <c r="P27" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2" t="e">
+        <f>(T27-U27)/(S27-R27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9">
+        <v>500</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="18">
+        <v>6</v>
+      </c>
+      <c r="O28" s="18">
+        <v>7</v>
+      </c>
+      <c r="P28" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="e">
+        <f>(T28-U28)/(S28-R28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>7</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7" t="e">
+        <f>AVERAGE(R26:R28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="6" t="e">
+        <f>AVERAGE(S26:S28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="6" t="e">
+        <f>AVERAGE(T26:T28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="6" t="e">
+        <f>AVERAGE(U26:U28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="6" t="e">
+        <f>AVERAGE(V26:V28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9">
+        <v>500</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="18">
+        <v>6</v>
+      </c>
+      <c r="O30" s="18">
+        <v>7</v>
+      </c>
+      <c r="P30" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="2" t="e">
+        <f>(T30-U30)/(S30-R30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9">
+        <v>500</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="18">
+        <v>6</v>
+      </c>
+      <c r="O31" s="18">
+        <v>7</v>
+      </c>
+      <c r="P31" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2" t="e">
+        <f>(T31-U31)/(S31-R31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
+        <v>24</v>
+      </c>
+      <c r="C32" s="9">
+        <v>500</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="18">
+        <v>6</v>
+      </c>
+      <c r="O32" s="18">
+        <v>7</v>
+      </c>
+      <c r="P32" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2" t="e">
+        <f>(T32-U32)/(S32-R32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="7" t="e">
+        <f>AVERAGE(R30:R32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="6" t="e">
+        <f>AVERAGE(S30:S32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="6" t="e">
+        <f>AVERAGE(T30:T32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" s="6" t="e">
+        <f>AVERAGE(U30:U32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" s="6" t="e">
+        <f>AVERAGE(V30:V32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2">
+        <v>25</v>
+      </c>
+      <c r="C34" s="9">
+        <v>500</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="18">
+        <v>6</v>
+      </c>
+      <c r="O34" s="18">
+        <v>7</v>
+      </c>
+      <c r="P34" s="17">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="2" t="e">
+        <f>(T34-U34)/(S34-R34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
+        <v>26</v>
+      </c>
+      <c r="C35" s="9">
+        <v>500</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="18">
+        <v>6</v>
+      </c>
+      <c r="O35" s="18">
+        <v>7</v>
+      </c>
+      <c r="P35" s="17">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2" t="e">
+        <f>(T35-U35)/(S35-R35)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2">
+        <v>27</v>
+      </c>
+      <c r="C36" s="9">
+        <v>500</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="18">
+        <v>6</v>
+      </c>
+      <c r="O36" s="18">
+        <v>7</v>
+      </c>
+      <c r="P36" s="17">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2" t="e">
+        <f>(T36-U36)/(S36-R36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>9</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="7" t="e">
+        <f>AVERAGE(R34:R36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="6" t="e">
+        <f>AVERAGE(S34:S36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="6" t="e">
+        <f>AVERAGE(T34:T36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="6" t="e">
+        <f>AVERAGE(U34:U36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="6" t="e">
+        <f>AVERAGE(V34:V36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9">
+        <v>500</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="18">
+        <v>6</v>
+      </c>
+      <c r="O38" s="18">
+        <v>7</v>
+      </c>
+      <c r="P38" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="2" t="e">
+        <f>(T38-U38)/(S38-R38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2">
+        <v>29</v>
+      </c>
+      <c r="C39" s="9">
+        <v>500</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="18">
+        <v>6</v>
+      </c>
+      <c r="O39" s="18">
+        <v>7</v>
+      </c>
+      <c r="P39" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2" t="e">
+        <f>(T39-U39)/(S39-R39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>30</v>
+      </c>
+      <c r="C40" s="9">
+        <v>500</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="18">
+        <v>6</v>
+      </c>
+      <c r="O40" s="18">
+        <v>7</v>
+      </c>
+      <c r="P40" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2" t="e">
+        <f>(T40-U40)/(S40-R40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="7" t="e">
+        <f>AVERAGE(R38:R40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="6" t="e">
+        <f>AVERAGE(S38:S40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="6" t="e">
+        <f>AVERAGE(T38:T40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" s="6" t="e">
+        <f>AVERAGE(U38:U40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" s="6" t="e">
+        <f>AVERAGE(V38:V40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2">
+        <v>31</v>
+      </c>
+      <c r="C42" s="9">
+        <v>500</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="18">
+        <v>6</v>
+      </c>
+      <c r="O42" s="18">
+        <v>7</v>
+      </c>
+      <c r="P42" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="2" t="e">
+        <f>(T42-U42)/(S42-R42)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
+        <v>32</v>
+      </c>
+      <c r="C43" s="9">
+        <v>500</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="18">
+        <v>6</v>
+      </c>
+      <c r="O43" s="18">
+        <v>7</v>
+      </c>
+      <c r="P43" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2" t="e">
+        <f>(T43-U43)/(S43-R43)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2">
+        <v>33</v>
+      </c>
+      <c r="C44" s="9">
+        <v>500</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="18">
+        <v>6</v>
+      </c>
+      <c r="O44" s="18">
+        <v>7</v>
+      </c>
+      <c r="P44" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2" t="e">
+        <f>(T44-U44)/(S44-R44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>11</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="7" t="e">
+        <f>AVERAGE(R42:R44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="6" t="e">
+        <f>AVERAGE(S42:S44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="6" t="e">
+        <f>AVERAGE(T42:T44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U45" s="6" t="e">
+        <f>AVERAGE(U42:U44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" s="6" t="e">
+        <f>AVERAGE(V42:V44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9">
+        <v>500</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" s="18">
+        <v>6</v>
+      </c>
+      <c r="O46" s="18">
+        <v>7</v>
+      </c>
+      <c r="P46" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="2" t="e">
+        <f>(T46-U46)/(S46-R46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9">
+        <v>500</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="18">
+        <v>6</v>
+      </c>
+      <c r="O47" s="18">
+        <v>7</v>
+      </c>
+      <c r="P47" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2" t="e">
+        <f>(T47-U47)/(S47-R47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2">
+        <v>36</v>
+      </c>
+      <c r="C48" s="9">
+        <v>500</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="18">
+        <v>6</v>
+      </c>
+      <c r="O48" s="18">
+        <v>7</v>
+      </c>
+      <c r="P48" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2" t="e">
+        <f>(T48-U48)/(S48-R48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="7" t="e">
+        <f>AVERAGE(R46:R48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" s="6" t="e">
+        <f>AVERAGE(S46:S48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="6" t="e">
+        <f>AVERAGE(T46:T48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U49" s="6" t="e">
+        <f>AVERAGE(U46:U48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V49" s="6" t="e">
+        <f>AVERAGE(V46:V48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resource/Tests.xlsx
+++ b/resource/Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3725845-CD20-4F02-807F-1329617D8CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A24B3F-A954-4E2C-8130-C23C4755D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
@@ -4945,8 +4945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,13 +5082,21 @@
       <c r="Q2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="6" t="e">
+      <c r="R2" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1894.99</v>
+      </c>
+      <c r="T2" s="9">
+        <v>1107</v>
+      </c>
+      <c r="U2" s="9">
+        <v>15</v>
+      </c>
+      <c r="V2" s="6">
         <f>(T2-U2)/(S2-R2)</f>
-        <v>#DIV/0!</v>
+        <v>0.57658494859840226</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5137,13 +5145,21 @@
       <c r="Q3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="e">
+      <c r="R3" s="6">
+        <v>1.226</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1963.796</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1138</v>
+      </c>
+      <c r="U3" s="6">
+        <v>21</v>
+      </c>
+      <c r="V3" s="6">
         <f>(T3-U3)/(S3-R3)</f>
-        <v>#DIV/0!</v>
+        <v>0.56915167357087904</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5192,13 +5208,21 @@
       <c r="Q4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6" t="e">
+      <c r="R4" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1913.501</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1126</v>
+      </c>
+      <c r="U4" s="6">
+        <v>8</v>
+      </c>
+      <c r="V4" s="6">
         <f>(T4-U4)/(S4-R4)</f>
-        <v>#DIV/0!</v>
+        <v>0.58461459622635992</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5221,25 +5245,21 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="12" t="e">
-        <f>AVERAGE(R2:R4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="11" t="e">
-        <f>AVERAGE(S2:S4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="11" t="e">
-        <f>AVERAGE(T2:T4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5" s="11" t="e">
-        <f>AVERAGE(U2:U4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V5" s="11" t="e">
+      <c r="R5" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1924.096333</v>
+      </c>
+      <c r="T5" s="11">
+        <v>1123.666667</v>
+      </c>
+      <c r="U5" s="11">
+        <v>14.66666667</v>
+      </c>
+      <c r="V5" s="11">
         <f>AVERAGE(V2:V4)</f>
-        <v>#DIV/0!</v>
+        <v>0.57678373946521377</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5288,13 +5308,21 @@
       <c r="Q6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="6" t="e">
+      <c r="R6" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3772.72</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1109</v>
+      </c>
+      <c r="U6" s="9">
+        <v>5</v>
+      </c>
+      <c r="V6" s="6">
         <f>(T6-U6)/(S6-R6)</f>
-        <v>#DIV/0!</v>
+        <v>0.29280169315761695</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5343,13 +5371,21 @@
       <c r="Q7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6" t="e">
+      <c r="R7" s="6">
+        <v>2.218</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3599.4870000000001</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1135</v>
+      </c>
+      <c r="U7" s="6">
+        <v>10</v>
+      </c>
+      <c r="V7" s="6">
         <f>(T7-U7)/(S7-R7)</f>
-        <v>#DIV/0!</v>
+        <v>0.31273724594963564</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5398,13 +5434,21 @@
       <c r="Q8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6" t="e">
+      <c r="R8" s="6">
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3618.027</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1059</v>
+      </c>
+      <c r="U8" s="6">
+        <v>4</v>
+      </c>
+      <c r="V8" s="6">
         <f>(T8-U8)/(S8-R8)</f>
-        <v>#DIV/0!</v>
+        <v>0.29176982320131511</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5427,25 +5471,21 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="12" t="e">
-        <f>AVERAGE(R6:R8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="11" t="e">
-        <f>AVERAGE(S6:S8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="11" t="e">
-        <f>AVERAGE(T6:T8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="11" t="e">
-        <f>AVERAGE(U6:U8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V9" s="11" t="e">
+      <c r="R9" s="12">
+        <v>2.21</v>
+      </c>
+      <c r="S9" s="11">
+        <v>3663.4126670000001</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1101</v>
+      </c>
+      <c r="U9" s="11">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="V9" s="11">
         <f>AVERAGE(V6:V8)</f>
-        <v>#DIV/0!</v>
+        <v>0.29910292076952255</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5494,13 +5534,21 @@
       <c r="Q10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="6" t="e">
+      <c r="R10" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="S10" s="9">
+        <v>5396.23</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1117</v>
+      </c>
+      <c r="U10" s="9">
+        <v>6</v>
+      </c>
+      <c r="V10" s="6">
         <f>(T10-U10)/(S10-R10)</f>
-        <v>#DIV/0!</v>
+        <v>0.20600053029839485</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5549,13 +5597,21 @@
       <c r="Q11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6" t="e">
+      <c r="R11" s="6">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="S11" s="6">
+        <v>5455.1809999999996</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1117</v>
+      </c>
+      <c r="U11" s="6">
+        <v>4</v>
+      </c>
+      <c r="V11" s="6">
         <f>(T11-U11)/(S11-R11)</f>
-        <v>#DIV/0!</v>
+        <v>0.20414193532057162</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5604,13 +5660,21 @@
       <c r="Q12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6" t="e">
+      <c r="R12" s="6">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="S12" s="6">
+        <v>5347.1289999999999</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1122</v>
+      </c>
+      <c r="U12" s="6">
+        <v>2</v>
+      </c>
+      <c r="V12" s="6">
         <f>(T12-U12)/(S12-R12)</f>
-        <v>#DIV/0!</v>
+        <v>0.2095787597914916</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5633,25 +5697,21 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="12" t="e">
-        <f>AVERAGE(R10:R12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="11" t="e">
-        <f>AVERAGE(S10:S12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="11" t="e">
-        <f>AVERAGE(T10:T12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="11" t="e">
-        <f>AVERAGE(U10:U12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="11" t="e">
+      <c r="R13" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="S13" s="11">
+        <v>5399.5136670000002</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1118.666667</v>
+      </c>
+      <c r="U13" s="11">
+        <v>4</v>
+      </c>
+      <c r="V13" s="11">
         <f>AVERAGE(V10:V12)</f>
-        <v>#DIV/0!</v>
+        <v>0.20657374180348601</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5700,13 +5760,21 @@
       <c r="Q14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="6" t="e">
+      <c r="R14" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S14" s="9">
+        <v>1833.11</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1117</v>
+      </c>
+      <c r="U14" s="9">
+        <v>8</v>
+      </c>
+      <c r="V14" s="6">
         <f>(T14-U14)/(S14-R14)</f>
-        <v>#DIV/0!</v>
+        <v>0.60535595366761652</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5755,13 +5823,21 @@
       <c r="Q15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6" t="e">
+      <c r="R15" s="6">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1847.354</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1135</v>
+      </c>
+      <c r="U15" s="6">
+        <v>8</v>
+      </c>
+      <c r="V15" s="6">
         <f>(T15-U15)/(S15-R15)</f>
-        <v>#DIV/0!</v>
+        <v>0.61042786280918138</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5810,13 +5886,21 @@
       <c r="Q16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6" t="e">
+      <c r="R16" s="6">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1827.4929999999999</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1106</v>
+      </c>
+      <c r="U16" s="6">
+        <v>12</v>
+      </c>
+      <c r="V16" s="6">
         <f>(T16-U16)/(S16-R16)</f>
-        <v>#DIV/0!</v>
+        <v>0.59900534450746601</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5839,25 +5923,21 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="12" t="e">
-        <f>AVERAGE(R14:R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="11" t="e">
-        <f>AVERAGE(S14:S16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="11" t="e">
-        <f>AVERAGE(T14:T16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="11" t="e">
-        <f>AVERAGE(U14:U16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="11" t="e">
+      <c r="R17" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1835.9843330000001</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1119.333333</v>
+      </c>
+      <c r="U17" s="11">
+        <v>9.3333333330000006</v>
+      </c>
+      <c r="V17" s="11">
         <f>AVERAGE(V14:V16)</f>
-        <v>#DIV/0!</v>
+        <v>0.60492972032808801</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5906,13 +5986,21 @@
       <c r="Q18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="6" t="e">
+      <c r="R18" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S18" s="9">
+        <v>1849.74</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1129</v>
+      </c>
+      <c r="U18" s="9">
+        <v>2</v>
+      </c>
+      <c r="V18" s="6">
         <f>(T18-U18)/(S18-R18)</f>
-        <v>#DIV/0!</v>
+        <v>0.60963405728504583</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5961,13 +6049,21 @@
       <c r="Q19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6" t="e">
+      <c r="R19" s="6">
+        <v>1.129</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1893.2059999999999</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1088</v>
+      </c>
+      <c r="U19" s="6">
+        <v>8</v>
+      </c>
+      <c r="V19" s="6">
         <f>(T19-U19)/(S19-R19)</f>
-        <v>#DIV/0!</v>
+        <v>0.57080129402767432</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6016,13 +6112,21 @@
       <c r="Q20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6" t="e">
+      <c r="R20" s="6">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1933.848</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1121</v>
+      </c>
+      <c r="U20" s="6">
+        <v>8</v>
+      </c>
+      <c r="V20" s="6">
         <f>(T20-U20)/(S20-R20)</f>
-        <v>#DIV/0!</v>
+        <v>0.57587711310164413</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6045,25 +6149,21 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="12" t="e">
-        <f>AVERAGE(R18:R20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="11" t="e">
-        <f>AVERAGE(S18:S20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="11" t="e">
-        <f>AVERAGE(T18:T20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="11" t="e">
-        <f>AVERAGE(U18:U20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="11" t="e">
+      <c r="R21" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S21" s="11">
+        <v>1892.2633330000001</v>
+      </c>
+      <c r="T21" s="11">
+        <v>1112.666667</v>
+      </c>
+      <c r="U21" s="11">
+        <v>6</v>
+      </c>
+      <c r="V21" s="11">
         <f>AVERAGE(V18:V20)</f>
-        <v>#DIV/0!</v>
+        <v>0.58543748813812135</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6112,13 +6212,21 @@
       <c r="Q22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="6" t="e">
+      <c r="R22" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1871.39</v>
+      </c>
+      <c r="T22" s="9">
+        <v>1124</v>
+      </c>
+      <c r="U22" s="9">
+        <v>4</v>
+      </c>
+      <c r="V22" s="6">
         <f>(T22-U22)/(S22-R22)</f>
-        <v>#DIV/0!</v>
+        <v>0.59882480631760171</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6167,13 +6275,21 @@
       <c r="Q23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6" t="e">
+      <c r="R23" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1906.78</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1070</v>
+      </c>
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
+      <c r="V23" s="6">
         <f>(T23-U23)/(S23-R23)</f>
-        <v>#DIV/0!</v>
+        <v>0.56044163640561706</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6222,13 +6338,21 @@
       <c r="Q24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6" t="e">
+      <c r="R24" s="6">
+        <v>1.107</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1903.0429999999999</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1089</v>
+      </c>
+      <c r="U24" s="6">
+        <v>10</v>
+      </c>
+      <c r="V24" s="6">
         <f>(T24-U24)/(S24-R24)</f>
-        <v>#DIV/0!</v>
+        <v>0.56731667101311511</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6251,25 +6375,21 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="12" t="e">
-        <f>AVERAGE(R22:R24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="11" t="e">
-        <f>AVERAGE(S22:S24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="11" t="e">
-        <f>AVERAGE(T22:T24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="11" t="e">
-        <f>AVERAGE(U22:U24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="11" t="e">
+      <c r="R25" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S25" s="11">
+        <v>1893.7360000000001</v>
+      </c>
+      <c r="T25" s="11">
+        <v>1094.333333</v>
+      </c>
+      <c r="U25" s="11">
+        <v>5.3333333329999997</v>
+      </c>
+      <c r="V25" s="11">
         <f>AVERAGE(V22:V24)</f>
-        <v>#DIV/0!</v>
+        <v>0.575527704578778</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6318,13 +6438,21 @@
       <c r="Q26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="6" t="e">
+      <c r="R26" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S26" s="9">
+        <v>1921.65</v>
+      </c>
+      <c r="T26" s="9">
+        <v>1152</v>
+      </c>
+      <c r="U26" s="9">
+        <v>4</v>
+      </c>
+      <c r="V26" s="6">
         <f>(T26-U26)/(S26-R26)</f>
-        <v>#DIV/0!</v>
+        <v>0.59775166230155208</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6373,13 +6501,21 @@
       <c r="Q27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6" t="e">
+      <c r="R27" s="6">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="S27" s="6">
+        <v>1880.8689999999999</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1109</v>
+      </c>
+      <c r="U27" s="6">
+        <v>4</v>
+      </c>
+      <c r="V27" s="6">
         <f>(T27-U27)/(S27-R27)</f>
-        <v>#DIV/0!</v>
+        <v>0.58788853846121103</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6428,13 +6564,21 @@
       <c r="Q28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6" t="e">
+      <c r="R28" s="6">
+        <v>1.087</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1892.5070000000001</v>
+      </c>
+      <c r="T28" s="6">
+        <v>1132</v>
+      </c>
+      <c r="U28" s="6">
+        <v>7</v>
+      </c>
+      <c r="V28" s="6">
         <f>(T28-U28)/(S28-R28)</f>
-        <v>#DIV/0!</v>
+        <v>0.59479121506592925</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6457,25 +6601,21 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="12" t="e">
-        <f>AVERAGE(R26:R28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="11" t="e">
-        <f>AVERAGE(S26:S28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="11" t="e">
-        <f>AVERAGE(T26:T28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="11" t="e">
-        <f>AVERAGE(U26:U28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="11" t="e">
+      <c r="R29" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S29" s="11">
+        <v>1898.3426669999999</v>
+      </c>
+      <c r="T29" s="11">
+        <v>1131</v>
+      </c>
+      <c r="U29" s="11">
+        <v>5</v>
+      </c>
+      <c r="V29" s="11">
         <f>AVERAGE(V26:V28)</f>
-        <v>#DIV/0!</v>
+        <v>0.59347713860956419</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6524,13 +6664,21 @@
       <c r="Q30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="6" t="e">
+      <c r="R30" s="9">
+        <v>1.01</v>
+      </c>
+      <c r="S30" s="9">
+        <v>1903.52</v>
+      </c>
+      <c r="T30" s="9">
+        <v>1137</v>
+      </c>
+      <c r="U30" s="9">
+        <v>6</v>
+      </c>
+      <c r="V30" s="6">
         <f>(T30-U30)/(S30-R30)</f>
-        <v>#DIV/0!</v>
+        <v>0.59447782140435534</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6579,13 +6727,21 @@
       <c r="Q31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6" t="e">
+      <c r="R31" s="6">
+        <v>1.113</v>
+      </c>
+      <c r="S31" s="6">
+        <v>1924.87</v>
+      </c>
+      <c r="T31" s="6">
+        <v>1106</v>
+      </c>
+      <c r="U31" s="6">
+        <v>8</v>
+      </c>
+      <c r="V31" s="6">
         <f>(T31-U31)/(S31-R31)</f>
-        <v>#DIV/0!</v>
+        <v>0.5707581570853284</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6634,13 +6790,21 @@
       <c r="Q32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6" t="e">
+      <c r="R32" s="6">
+        <v>1.052</v>
+      </c>
+      <c r="S32" s="6">
+        <v>1961.1510000000001</v>
+      </c>
+      <c r="T32" s="6">
+        <v>1129</v>
+      </c>
+      <c r="U32" s="6">
+        <v>10</v>
+      </c>
+      <c r="V32" s="6">
         <f>(T32-U32)/(S32-R32)</f>
-        <v>#DIV/0!</v>
+        <v>0.57088953160018951</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6663,25 +6827,21 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-      <c r="R33" s="12" t="e">
-        <f>AVERAGE(R30:R32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="11" t="e">
-        <f>AVERAGE(S30:S32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="11" t="e">
-        <f>AVERAGE(T30:T32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="11" t="e">
-        <f>AVERAGE(U30:U32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="11" t="e">
+      <c r="R33" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1929.846</v>
+      </c>
+      <c r="T33" s="11">
+        <v>1124</v>
+      </c>
+      <c r="U33" s="11">
+        <v>8</v>
+      </c>
+      <c r="V33" s="11">
         <f>AVERAGE(V30:V32)</f>
-        <v>#DIV/0!</v>
+        <v>0.57870850336329116</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6730,13 +6890,21 @@
       <c r="Q34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="6" t="e">
+      <c r="R34" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S34" s="9">
+        <v>1911.54</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1156</v>
+      </c>
+      <c r="U34" s="9">
+        <v>14</v>
+      </c>
+      <c r="V34" s="6">
         <f>(T34-U34)/(S34-R34)</f>
-        <v>#DIV/0!</v>
+        <v>0.59778056951423786</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6785,13 +6953,21 @@
       <c r="Q35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6" t="e">
+      <c r="R35" s="6">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="S35" s="6">
+        <v>1821.845</v>
+      </c>
+      <c r="T35" s="6">
+        <v>1143</v>
+      </c>
+      <c r="U35" s="6">
+        <v>8</v>
+      </c>
+      <c r="V35" s="6">
         <f>(T35-U35)/(S35-R35)</f>
-        <v>#DIV/0!</v>
+        <v>0.62338900627398475</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6840,13 +7016,21 @@
       <c r="Q36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6" t="e">
+      <c r="R36" s="6">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="S36" s="6">
+        <v>1907.9190000000001</v>
+      </c>
+      <c r="T36" s="6">
+        <v>1158</v>
+      </c>
+      <c r="U36" s="6">
+        <v>10</v>
+      </c>
+      <c r="V36" s="6">
         <f>(T36-U36)/(S36-R36)</f>
-        <v>#DIV/0!</v>
+        <v>0.60204159226366061</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6869,25 +7053,21 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="12" t="e">
-        <f>AVERAGE(R34:R36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="11" t="e">
-        <f>AVERAGE(S34:S36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="11" t="e">
-        <f>AVERAGE(T34:T36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="11" t="e">
-        <f>AVERAGE(U34:U36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="11" t="e">
+      <c r="R37" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S37" s="11">
+        <v>1880.433667</v>
+      </c>
+      <c r="T37" s="11">
+        <v>1152.333333</v>
+      </c>
+      <c r="U37" s="11">
+        <v>10.66666667</v>
+      </c>
+      <c r="V37" s="11">
         <f>AVERAGE(V34:V36)</f>
-        <v>#DIV/0!</v>
+        <v>0.60773705601729444</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6936,13 +7116,21 @@
       <c r="Q38" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="6" t="e">
+      <c r="R38" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="S38" s="9">
+        <v>1862.07</v>
+      </c>
+      <c r="T38" s="9">
+        <v>1154</v>
+      </c>
+      <c r="U38" s="9">
+        <v>4</v>
+      </c>
+      <c r="V38" s="6">
         <f>(T38-U38)/(S38-R38)</f>
-        <v>#DIV/0!</v>
+        <v>0.61793737876337296</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6991,13 +7179,21 @@
       <c r="Q39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6" t="e">
+      <c r="R39" s="6">
+        <v>1.079</v>
+      </c>
+      <c r="S39" s="6">
+        <v>1908.596</v>
+      </c>
+      <c r="T39" s="6">
+        <v>1148</v>
+      </c>
+      <c r="U39" s="6">
+        <v>9</v>
+      </c>
+      <c r="V39" s="6">
         <f>(T39-U39)/(S39-R39)</f>
-        <v>#DIV/0!</v>
+        <v>0.59711132325426197</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7046,13 +7242,21 @@
       <c r="Q40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6" t="e">
+      <c r="R40" s="6">
+        <v>1.089</v>
+      </c>
+      <c r="S40" s="6">
+        <v>1928.558</v>
+      </c>
+      <c r="T40" s="6">
+        <v>1127</v>
+      </c>
+      <c r="U40" s="6">
+        <v>4</v>
+      </c>
+      <c r="V40" s="6">
         <f>(T40-U40)/(S40-R40)</f>
-        <v>#DIV/0!</v>
+        <v>0.58262934449269999</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7075,25 +7279,21 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="12" t="e">
-        <f>AVERAGE(R38:R40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S41" s="11" t="e">
-        <f>AVERAGE(S38:S40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="11" t="e">
-        <f>AVERAGE(T38:T40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U41" s="11" t="e">
-        <f>AVERAGE(U38:U40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V41" s="11" t="e">
+      <c r="R41" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="S41" s="11">
+        <v>1899.740667</v>
+      </c>
+      <c r="T41" s="11">
+        <v>1143</v>
+      </c>
+      <c r="U41" s="11">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="V41" s="11">
         <f>AVERAGE(V38:V40)</f>
-        <v>#DIV/0!</v>
+        <v>0.59922601550344501</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7142,13 +7342,21 @@
       <c r="Q42" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="6" t="e">
+      <c r="R42" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="S42" s="9">
+        <v>1916.53</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1117</v>
+      </c>
+      <c r="U42" s="9">
+        <v>7</v>
+      </c>
+      <c r="V42" s="6">
         <f>(T42-U42)/(S42-R42)</f>
-        <v>#DIV/0!</v>
+        <v>0.57948921419174304</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,13 +7405,21 @@
       <c r="Q43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6" t="e">
+      <c r="R43" s="6">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="S43" s="6">
+        <v>1911.038</v>
+      </c>
+      <c r="T43" s="6">
+        <v>1107</v>
+      </c>
+      <c r="U43" s="6">
+        <v>6</v>
+      </c>
+      <c r="V43" s="6">
         <f>(T43-U43)/(S43-R43)</f>
-        <v>#DIV/0!</v>
+        <v>0.57648023473898169</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7252,13 +7468,21 @@
       <c r="Q44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6" t="e">
+      <c r="R44" s="6">
+        <v>1.016</v>
+      </c>
+      <c r="S44" s="6">
+        <v>1912.316</v>
+      </c>
+      <c r="T44" s="6">
+        <v>1103</v>
+      </c>
+      <c r="U44" s="6">
+        <v>8</v>
+      </c>
+      <c r="V44" s="6">
         <f>(T44-U44)/(S44-R44)</f>
-        <v>#DIV/0!</v>
+        <v>0.57290849160257418</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7281,25 +7505,21 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="12" t="e">
-        <f>AVERAGE(R42:R44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S45" s="11" t="e">
-        <f>AVERAGE(S42:S44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" s="11" t="e">
-        <f>AVERAGE(T42:T44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U45" s="11" t="e">
-        <f>AVERAGE(U42:U44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V45" s="11" t="e">
+      <c r="R45" s="12">
+        <v>1.08</v>
+      </c>
+      <c r="S45" s="11">
+        <v>1913.2940000000001</v>
+      </c>
+      <c r="T45" s="11">
+        <v>1109</v>
+      </c>
+      <c r="U45" s="11">
+        <v>7</v>
+      </c>
+      <c r="V45" s="11">
         <f>AVERAGE(V42:V44)</f>
-        <v>#DIV/0!</v>
+        <v>0.57629264684443304</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7348,13 +7568,21 @@
       <c r="Q46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="6" t="e">
+      <c r="R46" s="9">
+        <v>1.29</v>
+      </c>
+      <c r="S46" s="9">
+        <v>1928.17</v>
+      </c>
+      <c r="T46" s="9">
+        <v>1167</v>
+      </c>
+      <c r="U46" s="9">
+        <v>16</v>
+      </c>
+      <c r="V46" s="6">
         <f>(T46-U46)/(S46-R46)</f>
-        <v>#DIV/0!</v>
+        <v>0.59733870298098479</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7403,13 +7631,21 @@
       <c r="Q47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6" t="e">
+      <c r="R47" s="6">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="S47" s="6">
+        <v>1916.779</v>
+      </c>
+      <c r="T47" s="6">
+        <v>1123</v>
+      </c>
+      <c r="U47" s="6">
+        <v>8</v>
+      </c>
+      <c r="V47" s="6">
         <f>(T47-U47)/(S47-R47)</f>
-        <v>#DIV/0!</v>
+        <v>0.58205060342726012</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7458,13 +7694,21 @@
       <c r="Q48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6" t="e">
+      <c r="R48" s="6">
+        <v>1.054</v>
+      </c>
+      <c r="S48" s="6">
+        <v>1873.3030000000001</v>
+      </c>
+      <c r="T48" s="6">
+        <v>1150</v>
+      </c>
+      <c r="U48" s="6">
+        <v>9</v>
+      </c>
+      <c r="V48" s="6">
         <f>(T48-U48)/(S48-R48)</f>
-        <v>#DIV/0!</v>
+        <v>0.60942748533982394</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7487,25 +7731,21 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="12" t="e">
-        <f>AVERAGE(R46:R48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S49" s="11" t="e">
-        <f>AVERAGE(S46:S48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="11" t="e">
-        <f>AVERAGE(T46:T48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U49" s="11" t="e">
-        <f>AVERAGE(U46:U48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V49" s="11" t="e">
+      <c r="R49" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S49" s="11">
+        <v>1906.0826669999999</v>
+      </c>
+      <c r="T49" s="11">
+        <v>1146.666667</v>
+      </c>
+      <c r="U49" s="11">
+        <v>11</v>
+      </c>
+      <c r="V49" s="11">
         <f>AVERAGE(V46:V48)</f>
-        <v>#DIV/0!</v>
+        <v>0.59627226391602306</v>
       </c>
     </row>
   </sheetData>

--- a/resource/Tests.xlsx
+++ b/resource/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAD9F0-1F8A-4105-B789-D34FC495E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9F9B0-E79D-4173-A8D2-9CFF4316AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic Algorithm" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="38">
   <si>
     <t># avg</t>
   </si>
@@ -427,7 +427,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>tl</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -453,7 +453,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>n</t>
+      <t>tl</t>
     </r>
     <r>
       <rPr>
@@ -956,9 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2943,7 +2945,7 @@
         <v>2000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -2966,20 +2968,20 @@
         <v>1</v>
       </c>
       <c r="N38" s="5">
-        <v>0.96</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="O38" s="5">
-        <v>1806.499</v>
+        <v>1793.2729999999999</v>
       </c>
       <c r="P38" s="5">
-        <v>1115</v>
+        <v>1174</v>
       </c>
       <c r="Q38" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R38" s="5">
         <f>(P38-Q38)/(O38-N38)</f>
-        <v>0.61034405792397728</v>
+        <v>0.65055492446644458</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -2994,7 +2996,7 @@
         <v>2000</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -3017,20 +3019,20 @@
         <v>1</v>
       </c>
       <c r="N39" s="5">
-        <v>0.94299999999999995</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="O39" s="5">
-        <v>1821.3610000000001</v>
+        <v>1796.327</v>
       </c>
       <c r="P39" s="5">
-        <v>1174</v>
+        <v>1102</v>
       </c>
       <c r="Q39" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R39" s="5">
         <f>(P39-Q39)/(O39-N39)</f>
-        <v>0.63886426084558601</v>
+        <v>0.60544892896251556</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3045,7 +3047,7 @@
         <v>2000</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
@@ -3068,20 +3070,20 @@
         <v>1</v>
       </c>
       <c r="N40" s="5">
-        <v>0.999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="O40" s="5">
-        <v>1811.3620000000001</v>
+        <v>1794.922</v>
       </c>
       <c r="P40" s="5">
-        <v>1186</v>
+        <v>1199</v>
       </c>
       <c r="Q40" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R40" s="5">
         <f>(P40-Q40)/(O40-N40)</f>
-        <v>0.64351734983536446</v>
+        <v>0.65776124827477034</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -3096,7 +3098,7 @@
         <v>2000</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -3120,11 +3122,11 @@
       </c>
       <c r="N41" s="10">
         <f>AVERAGE(N38:N40)</f>
-        <v>0.96733333333333338</v>
+        <v>0.96</v>
       </c>
       <c r="O41" s="10">
         <f>AVERAGE(O38:O40)</f>
-        <v>1813.0739999999998</v>
+        <v>1794.8406666666667</v>
       </c>
       <c r="P41" s="10">
         <f>AVERAGE(P38:P40)</f>
@@ -3132,11 +3134,11 @@
       </c>
       <c r="Q41" s="10">
         <f>AVERAGE(Q38:Q40)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41" s="10">
         <f>AVERAGE(R38:R40)</f>
-        <v>0.63090855620164266</v>
+        <v>0.6379217005679102</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -3151,7 +3153,7 @@
         <v>2000</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -3174,20 +3176,20 @@
         <v>1</v>
       </c>
       <c r="N42" s="5">
-        <v>0.95699999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O42" s="5">
-        <v>1793.2729999999999</v>
+        <v>1846.4670000000001</v>
       </c>
       <c r="P42" s="5">
-        <v>1174</v>
+        <v>1124</v>
       </c>
       <c r="Q42" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R42" s="5">
         <f>(P42-Q42)/(O42-N42)</f>
-        <v>0.65055492446644458</v>
+        <v>0.60362456502727146</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -3202,7 +3204,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -3225,20 +3227,20 @@
         <v>1</v>
       </c>
       <c r="N43" s="5">
-        <v>0.96499999999999997</v>
+        <v>1.036</v>
       </c>
       <c r="O43" s="5">
-        <v>1796.327</v>
+        <v>1848.3119999999999</v>
       </c>
       <c r="P43" s="5">
-        <v>1102</v>
+        <v>1154</v>
       </c>
       <c r="Q43" s="5">
         <v>15</v>
       </c>
       <c r="R43" s="5">
         <f>(P43-Q43)/(O43-N43)</f>
-        <v>0.60544892896251556</v>
+        <v>0.61658355329685444</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -3253,7 +3255,7 @@
         <v>2000</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -3276,20 +3278,20 @@
         <v>1</v>
       </c>
       <c r="N44" s="5">
-        <v>0.95799999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O44" s="5">
-        <v>1794.922</v>
+        <v>1826.518</v>
       </c>
       <c r="P44" s="5">
-        <v>1199</v>
+        <v>1167</v>
       </c>
       <c r="Q44" s="5">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R44" s="5">
         <f>(P44-Q44)/(O44-N44)</f>
-        <v>0.65776124827477034</v>
+        <v>0.62336831426527439</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -3304,7 +3306,7 @@
         <v>2000</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -3328,23 +3330,23 @@
       </c>
       <c r="N45" s="10">
         <f>AVERAGE(N42:N44)</f>
-        <v>0.96</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="O45" s="10">
         <f>AVERAGE(O42:O44)</f>
-        <v>1794.8406666666667</v>
+        <v>1840.4323333333334</v>
       </c>
       <c r="P45" s="10">
         <f>AVERAGE(P42:P44)</f>
-        <v>1158.3333333333333</v>
+        <v>1148.3333333333333</v>
       </c>
       <c r="Q45" s="10">
         <f>AVERAGE(Q42:Q44)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R45" s="10">
         <f>AVERAGE(R42:R44)</f>
-        <v>0.6379217005679102</v>
+        <v>0.61452547752980013</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -3358,8 +3360,8 @@
       <c r="D46" s="5">
         <v>2000</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>25</v>
+      <c r="E46" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
@@ -3375,27 +3377,27 @@
       <c r="K46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="5">
-        <v>1</v>
+      <c r="L46" s="13">
+        <v>2</v>
       </c>
       <c r="M46" s="5">
         <v>1</v>
       </c>
       <c r="N46" s="5">
-        <v>0.94899999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="O46" s="5">
-        <v>1846.4670000000001</v>
+        <v>1878.146</v>
       </c>
       <c r="P46" s="5">
-        <v>1124</v>
+        <v>1178</v>
       </c>
       <c r="Q46" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R46" s="5">
         <f>(P46-Q46)/(O46-N46)</f>
-        <v>0.60362456502727146</v>
+        <v>0.6206084626489593</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -3409,8 +3411,8 @@
       <c r="D47" s="5">
         <v>2000</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>25</v>
+      <c r="E47" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -3426,27 +3428,27 @@
       <c r="K47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="5">
-        <v>1</v>
+      <c r="L47" s="13">
+        <v>2</v>
       </c>
       <c r="M47" s="5">
         <v>1</v>
       </c>
       <c r="N47" s="5">
-        <v>1.036</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="O47" s="5">
-        <v>1848.3119999999999</v>
+        <v>1886.77</v>
       </c>
       <c r="P47" s="5">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="Q47" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R47" s="5">
         <f>(P47-Q47)/(O47-N47)</f>
-        <v>0.61658355329685444</v>
+        <v>0.60664584768416663</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -3460,8 +3462,8 @@
       <c r="D48" s="5">
         <v>2000</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>25</v>
+      <c r="E48" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F48" s="5">
         <v>1</v>
@@ -3477,27 +3479,27 @@
       <c r="K48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="5">
-        <v>1</v>
+      <c r="L48" s="13">
+        <v>2</v>
       </c>
       <c r="M48" s="5">
         <v>1</v>
       </c>
       <c r="N48" s="5">
-        <v>0.95199999999999996</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="O48" s="5">
-        <v>1826.518</v>
+        <v>1870.348</v>
       </c>
       <c r="P48" s="5">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="Q48" s="5">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="R48" s="5">
         <f>(P48-Q48)/(O48-N48)</f>
-        <v>0.62336831426527439</v>
+        <v>0.61893270751765195</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -3511,8 +3513,8 @@
       <c r="D49" s="5">
         <v>2000</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>25</v>
+      <c r="E49" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -3528,31 +3530,31 @@
       <c r="K49" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="5">
-        <v>1</v>
+      <c r="L49" s="13">
+        <v>2</v>
       </c>
       <c r="M49" s="5">
         <v>1</v>
       </c>
       <c r="N49" s="10">
         <f>AVERAGE(N46:N48)</f>
-        <v>0.97899999999999998</v>
+        <v>0.98266666666666669</v>
       </c>
       <c r="O49" s="10">
         <f>AVERAGE(O46:O48)</f>
-        <v>1840.4323333333334</v>
+        <v>1878.4213333333335</v>
       </c>
       <c r="P49" s="10">
         <f>AVERAGE(P46:P48)</f>
-        <v>1148.3333333333333</v>
+        <v>1165.3333333333333</v>
       </c>
       <c r="Q49" s="10">
         <f>AVERAGE(Q46:Q48)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R49" s="10">
         <f>AVERAGE(R46:R48)</f>
-        <v>0.61452547752980013</v>
+        <v>0.61539567261692596</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -3584,26 +3586,26 @@
         <v>20</v>
       </c>
       <c r="L50" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50" s="5">
         <v>1</v>
       </c>
       <c r="N50" s="5">
-        <v>0.96199999999999997</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="O50" s="5">
-        <v>1851.2470000000001</v>
+        <v>1833.9590000000001</v>
       </c>
       <c r="P50" s="5">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="Q50" s="5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="R50" s="5">
         <f>(P50-Q50)/(O50-N50)</f>
-        <v>0.62476861672661232</v>
+        <v>0.63066218438249111</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -3635,26 +3637,26 @@
         <v>20</v>
       </c>
       <c r="L51" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51" s="5">
         <v>1</v>
       </c>
       <c r="N51" s="5">
-        <v>1.038</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="O51" s="5">
-        <v>1818.527</v>
+        <v>1823.2449999999999</v>
       </c>
       <c r="P51" s="5">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="Q51" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="R51" s="5">
         <f>(P51-Q51)/(O51-N51)</f>
-        <v>0.61843565490630203</v>
+        <v>0.62010807441077387</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -3686,26 +3688,26 @@
         <v>20</v>
       </c>
       <c r="L52" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M52" s="5">
         <v>1</v>
       </c>
       <c r="N52" s="5">
-        <v>0.92500000000000004</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="O52" s="5">
-        <v>1828.104</v>
+        <v>1862.086</v>
       </c>
       <c r="P52" s="5">
-        <v>1178</v>
+        <v>1148</v>
       </c>
       <c r="Q52" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R52" s="5">
         <f>(P52-Q52)/(O52-N52)</f>
-        <v>0.63759489354901733</v>
+        <v>0.61041630284386295</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -3737,30 +3739,30 @@
         <v>20</v>
       </c>
       <c r="L53" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M53" s="5">
         <v>1</v>
       </c>
       <c r="N53" s="10">
         <f>AVERAGE(N50:N52)</f>
-        <v>0.97499999999999998</v>
+        <v>1.0026666666666666</v>
       </c>
       <c r="O53" s="10">
         <f>AVERAGE(O50:O52)</f>
-        <v>1832.6260000000002</v>
+        <v>1839.7633333333333</v>
       </c>
       <c r="P53" s="10">
         <f>AVERAGE(P50:P52)</f>
-        <v>1163.6666666666667</v>
+        <v>1155.3333333333333</v>
       </c>
       <c r="Q53" s="10">
         <f>AVERAGE(Q50:Q52)</f>
-        <v>15.333333333333334</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="R53" s="10">
         <f>AVERAGE(R50:R52)</f>
-        <v>0.6269330550606439</v>
+        <v>0.62039552054570934</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -3777,10 +3779,12 @@
       <c r="E54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="F54" s="13">
+        <v>2</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2</v>
+      </c>
       <c r="H54" s="11" t="s">
         <v>22</v>
       </c>
@@ -3791,27 +3795,27 @@
       <c r="K54" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="13">
-        <v>2</v>
+      <c r="L54" s="12">
+        <v>3</v>
       </c>
       <c r="M54" s="5">
         <v>1</v>
       </c>
       <c r="N54" s="5">
-        <v>0.95599999999999996</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="O54" s="5">
-        <v>1878.146</v>
+        <v>1971.66</v>
       </c>
       <c r="P54" s="5">
-        <v>1178</v>
+        <v>1130</v>
       </c>
       <c r="Q54" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R54" s="5">
         <f>(P54-Q54)/(O54-N54)</f>
-        <v>0.6206084626489593</v>
+        <v>0.56732578962565117</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -3828,10 +3832,12 @@
       <c r="E55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13">
+        <v>2</v>
+      </c>
       <c r="H55" s="11" t="s">
         <v>22</v>
       </c>
@@ -3842,27 +3848,27 @@
       <c r="K55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="13">
-        <v>2</v>
+      <c r="L55" s="12">
+        <v>3</v>
       </c>
       <c r="M55" s="5">
         <v>1</v>
       </c>
       <c r="N55" s="5">
-        <v>0.99099999999999999</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="O55" s="5">
-        <v>1886.77</v>
+        <v>1960.989</v>
       </c>
       <c r="P55" s="5">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="Q55" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R55" s="5">
         <f>(P55-Q55)/(O55-N55)</f>
-        <v>0.60664584768416663</v>
+        <v>0.58521065032362607</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -3879,10 +3885,12 @@
       <c r="E56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="F56" s="13">
+        <v>2</v>
+      </c>
+      <c r="G56" s="13">
+        <v>2</v>
+      </c>
       <c r="H56" s="11" t="s">
         <v>22</v>
       </c>
@@ -3893,27 +3901,27 @@
       <c r="K56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L56" s="13">
-        <v>2</v>
+      <c r="L56" s="12">
+        <v>3</v>
       </c>
       <c r="M56" s="5">
         <v>1</v>
       </c>
       <c r="N56" s="5">
-        <v>1.0009999999999999</v>
+        <v>1.046</v>
       </c>
       <c r="O56" s="5">
-        <v>1870.348</v>
+        <v>2009.6469999999999</v>
       </c>
       <c r="P56" s="5">
-        <v>1161</v>
+        <v>1186</v>
       </c>
       <c r="Q56" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R56" s="5">
         <f>(P56-Q56)/(O56-N56)</f>
-        <v>0.61893270751765195</v>
+        <v>0.58000568554929532</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -3930,10 +3938,12 @@
       <c r="E57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5"/>
+      <c r="F57" s="13">
+        <v>2</v>
+      </c>
+      <c r="G57" s="13">
+        <v>2</v>
+      </c>
       <c r="H57" s="11" t="s">
         <v>22</v>
       </c>
@@ -3944,31 +3954,31 @@
       <c r="K57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L57" s="13">
-        <v>2</v>
+      <c r="L57" s="12">
+        <v>3</v>
       </c>
       <c r="M57" s="5">
         <v>1</v>
       </c>
       <c r="N57" s="10">
         <f>AVERAGE(N54:N56)</f>
-        <v>0.98266666666666669</v>
+        <v>1.0226666666666666</v>
       </c>
       <c r="O57" s="10">
         <f>AVERAGE(O54:O56)</f>
-        <v>1878.4213333333335</v>
+        <v>1980.7653333333335</v>
       </c>
       <c r="P57" s="10">
         <f>AVERAGE(P54:P56)</f>
-        <v>1165.3333333333333</v>
+        <v>1159</v>
       </c>
       <c r="Q57" s="10">
         <f>AVERAGE(Q54:Q56)</f>
-        <v>10</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="R57" s="10">
         <f>AVERAGE(R54:R56)</f>
-        <v>0.61539567261692596</v>
+        <v>0.57751404183285748</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
@@ -3985,10 +3995,12 @@
       <c r="E58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="5">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5"/>
+      <c r="F58" s="13">
+        <v>2</v>
+      </c>
+      <c r="G58" s="13">
+        <v>4</v>
+      </c>
       <c r="H58" s="11" t="s">
         <v>22</v>
       </c>
@@ -3999,27 +4011,27 @@
       <c r="K58" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="12">
         <v>3</v>
       </c>
       <c r="M58" s="5">
         <v>1</v>
       </c>
       <c r="N58" s="5">
-        <v>0.96499999999999997</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="O58" s="5">
-        <v>1833.9590000000001</v>
+        <v>2222.317</v>
       </c>
       <c r="P58" s="5">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="Q58" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R58" s="5">
         <f>(P58-Q58)/(O58-N58)</f>
-        <v>0.63066218438249111</v>
+        <v>0.51728073307098621</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
@@ -4036,10 +4048,12 @@
       <c r="E59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="5">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5"/>
+      <c r="F59" s="13">
+        <v>2</v>
+      </c>
+      <c r="G59" s="13">
+        <v>4</v>
+      </c>
       <c r="H59" s="11" t="s">
         <v>22</v>
       </c>
@@ -4050,27 +4064,27 @@
       <c r="K59" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="12">
         <v>3</v>
       </c>
       <c r="M59" s="5">
         <v>1</v>
       </c>
       <c r="N59" s="5">
-        <v>0.98199999999999998</v>
+        <v>1.117</v>
       </c>
       <c r="O59" s="5">
-        <v>1823.2449999999999</v>
+        <v>2138.1129999999998</v>
       </c>
       <c r="P59" s="5">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="Q59" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R59" s="5">
         <f>(P59-Q59)/(O59-N59)</f>
-        <v>0.62010807441077387</v>
+        <v>0.53345911737785201</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
@@ -4087,10 +4101,12 @@
       <c r="E60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="5">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5"/>
+      <c r="F60" s="13">
+        <v>2</v>
+      </c>
+      <c r="G60" s="13">
+        <v>4</v>
+      </c>
       <c r="H60" s="11" t="s">
         <v>22</v>
       </c>
@@ -4101,27 +4117,27 @@
       <c r="K60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="12">
         <v>3</v>
       </c>
       <c r="M60" s="5">
         <v>1</v>
       </c>
       <c r="N60" s="5">
-        <v>1.0609999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="O60" s="5">
-        <v>1862.086</v>
+        <v>2229.4209999999998</v>
       </c>
       <c r="P60" s="5">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="Q60" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R60" s="5">
         <f>(P60-Q60)/(O60-N60)</f>
-        <v>0.61041630284386295</v>
+        <v>0.5165558158530128</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -4138,10 +4154,12 @@
       <c r="E61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5"/>
+      <c r="F61" s="13">
+        <v>2</v>
+      </c>
+      <c r="G61" s="13">
+        <v>4</v>
+      </c>
       <c r="H61" s="11" t="s">
         <v>22</v>
       </c>
@@ -4152,7 +4170,7 @@
       <c r="K61" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="12">
         <v>3</v>
       </c>
       <c r="M61" s="5">
@@ -4160,23 +4178,23 @@
       </c>
       <c r="N61" s="10">
         <f>AVERAGE(N58:N60)</f>
-        <v>1.0026666666666666</v>
+        <v>1.1346666666666667</v>
       </c>
       <c r="O61" s="10">
         <f>AVERAGE(O58:O60)</f>
-        <v>1839.7633333333333</v>
+        <v>2196.6170000000002</v>
       </c>
       <c r="P61" s="10">
         <f>AVERAGE(P58:P60)</f>
-        <v>1155.3333333333333</v>
+        <v>1156.6666666666667</v>
       </c>
       <c r="Q61" s="10">
         <f>AVERAGE(Q58:Q60)</f>
-        <v>14.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="R61" s="10">
         <f>AVERAGE(R58:R60)</f>
-        <v>0.62039552054570934</v>
+        <v>0.52243188876728364</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
@@ -4194,9 +4212,11 @@
         <v>18</v>
       </c>
       <c r="F62" s="13">
-        <v>1</v>
-      </c>
-      <c r="G62" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G62" s="13">
+        <v>6</v>
+      </c>
       <c r="H62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4214,20 +4234,20 @@
         <v>1</v>
       </c>
       <c r="N62" s="5">
-        <v>0.94699999999999995</v>
+        <v>1.238</v>
       </c>
       <c r="O62" s="5">
-        <v>1805.201</v>
+        <v>2261.0030000000002</v>
       </c>
       <c r="P62" s="5">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="Q62" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R62" s="5">
         <f>(P62-Q62)/(O62-N62)</f>
-        <v>0.64070801561199253</v>
+        <v>0.52129314331357457</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -4245,9 +4265,11 @@
         <v>18</v>
       </c>
       <c r="F63" s="13">
-        <v>1</v>
-      </c>
-      <c r="G63" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G63" s="13">
+        <v>6</v>
+      </c>
       <c r="H63" s="11" t="s">
         <v>22</v>
       </c>
@@ -4265,20 +4287,20 @@
         <v>1</v>
       </c>
       <c r="N63" s="5">
-        <v>1.038</v>
+        <v>1.141</v>
       </c>
       <c r="O63" s="5">
-        <v>1904.413</v>
+        <v>2235.7379999999998</v>
       </c>
       <c r="P63" s="5">
-        <v>1153</v>
+        <v>1183</v>
       </c>
       <c r="Q63" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R63" s="5">
         <f>(P63-Q63)/(O63-N63)</f>
-        <v>0.6005122479805608</v>
+        <v>0.52761191391557405</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
@@ -4296,9 +4318,11 @@
         <v>18</v>
       </c>
       <c r="F64" s="13">
-        <v>1</v>
-      </c>
-      <c r="G64" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G64" s="13">
+        <v>6</v>
+      </c>
       <c r="H64" s="11" t="s">
         <v>22</v>
       </c>
@@ -4316,20 +4340,20 @@
         <v>1</v>
       </c>
       <c r="N64" s="5">
-        <v>1.032</v>
+        <v>1.18</v>
       </c>
       <c r="O64" s="5">
-        <v>1783.29</v>
+        <v>2220.915</v>
       </c>
       <c r="P64" s="5">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q64" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R64" s="5">
         <f>(P64-Q64)/(O64-N64)</f>
-        <v>0.63290500028615382</v>
+        <v>0.51312431438887973</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -4347,9 +4371,11 @@
         <v>18</v>
       </c>
       <c r="F65" s="13">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G65" s="13">
+        <v>6</v>
+      </c>
       <c r="H65" s="11" t="s">
         <v>22</v>
       </c>
@@ -4367,24 +4393,24 @@
         <v>1</v>
       </c>
       <c r="N65" s="10">
-        <f>AVERAGE(N62:N64)</f>
-        <v>1.0056666666666667</v>
+        <f>AVERAGE(N54:N56)</f>
+        <v>1.0226666666666666</v>
       </c>
       <c r="O65" s="10">
-        <f>AVERAGE(O62:O64)</f>
-        <v>1830.9680000000001</v>
+        <f>AVERAGE(O54:O56)</f>
+        <v>1980.7653333333335</v>
       </c>
       <c r="P65" s="10">
-        <f>AVERAGE(P62:P64)</f>
-        <v>1158.6666666666667</v>
+        <f>AVERAGE(P54:P56)</f>
+        <v>1159</v>
       </c>
       <c r="Q65" s="10">
-        <f>AVERAGE(Q62:Q64)</f>
-        <v>16.333333333333332</v>
+        <f>AVERAGE(Q54:Q56)</f>
+        <v>15.666666666666666</v>
       </c>
       <c r="R65" s="10">
-        <f>AVERAGE(R62:R64)</f>
-        <v>0.62470842129290238</v>
+        <f>AVERAGE(R54:R56)</f>
+        <v>0.57751404183285748</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -4401,12 +4427,10 @@
       <c r="E66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="13">
-        <v>2</v>
-      </c>
-      <c r="G66" s="13">
-        <v>2</v>
-      </c>
+      <c r="F66" s="12">
+        <v>1</v>
+      </c>
+      <c r="G66" s="12"/>
       <c r="H66" s="11" t="s">
         <v>22</v>
       </c>
@@ -4420,24 +4444,24 @@
       <c r="L66" s="12">
         <v>3</v>
       </c>
-      <c r="M66" s="5">
-        <v>1</v>
+      <c r="M66" s="13">
+        <v>2</v>
       </c>
       <c r="N66" s="5">
-        <v>1.0109999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="O66" s="5">
-        <v>1971.66</v>
+        <v>159.41300000000001</v>
       </c>
       <c r="P66" s="5">
-        <v>1130</v>
+        <v>2</v>
       </c>
       <c r="Q66" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R66" s="5">
         <f>(P66-Q66)/(O66-N66)</f>
-        <v>0.56732578962565117</v>
+        <v>1.2629212631738475E-2</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -4454,12 +4478,10 @@
       <c r="E67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="13">
-        <v>2</v>
-      </c>
-      <c r="G67" s="13">
-        <v>2</v>
-      </c>
+      <c r="F67" s="12">
+        <v>1</v>
+      </c>
+      <c r="G67" s="12"/>
       <c r="H67" s="11" t="s">
         <v>22</v>
       </c>
@@ -4473,24 +4495,24 @@
       <c r="L67" s="12">
         <v>3</v>
       </c>
-      <c r="M67" s="5">
-        <v>1</v>
+      <c r="M67" s="13">
+        <v>2</v>
       </c>
       <c r="N67" s="5">
-        <v>1.0109999999999999</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="O67" s="5">
-        <v>1960.989</v>
+        <v>466.58800000000002</v>
       </c>
       <c r="P67" s="5">
-        <v>1161</v>
+        <v>12</v>
       </c>
       <c r="Q67" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R67" s="5">
         <f>(P67-Q67)/(O67-N67)</f>
-        <v>0.58521065032362607</v>
+        <v>2.5783163594173004E-2</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -4507,12 +4529,10 @@
       <c r="E68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="13">
-        <v>2</v>
-      </c>
-      <c r="G68" s="13">
-        <v>2</v>
-      </c>
+      <c r="F68" s="12">
+        <v>1</v>
+      </c>
+      <c r="G68" s="12"/>
       <c r="H68" s="11" t="s">
         <v>22</v>
       </c>
@@ -4526,24 +4546,24 @@
       <c r="L68" s="12">
         <v>3</v>
       </c>
-      <c r="M68" s="5">
-        <v>1</v>
+      <c r="M68" s="13">
+        <v>2</v>
       </c>
       <c r="N68" s="5">
-        <v>1.046</v>
+        <v>1.131</v>
       </c>
       <c r="O68" s="5">
-        <v>2009.6469999999999</v>
+        <v>2216.442</v>
       </c>
       <c r="P68" s="5">
-        <v>1186</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="R68" s="5">
         <f>(P68-Q68)/(O68-N68)</f>
-        <v>0.58000568554929532</v>
+        <v>3.1598272206475749E-3</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -4560,12 +4580,10 @@
       <c r="E69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="13">
-        <v>2</v>
-      </c>
-      <c r="G69" s="13">
-        <v>2</v>
-      </c>
+      <c r="F69" s="12">
+        <v>1</v>
+      </c>
+      <c r="G69" s="12"/>
       <c r="H69" s="11" t="s">
         <v>22</v>
       </c>
@@ -4579,879 +4597,31 @@
       <c r="L69" s="12">
         <v>3</v>
       </c>
-      <c r="M69" s="5">
-        <v>1</v>
+      <c r="M69" s="13">
+        <v>2</v>
       </c>
       <c r="N69" s="10">
         <f>AVERAGE(N66:N68)</f>
-        <v>1.0226666666666666</v>
+        <v>1.1163333333333334</v>
       </c>
       <c r="O69" s="10">
         <f>AVERAGE(O66:O68)</f>
-        <v>1980.7653333333335</v>
+        <v>947.48100000000011</v>
       </c>
       <c r="P69" s="10">
         <f>AVERAGE(P66:P68)</f>
-        <v>1159</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Q69" s="10">
         <f>AVERAGE(Q66:Q68)</f>
-        <v>15.666666666666666</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="R69" s="10">
         <f>AVERAGE(R66:R68)</f>
-        <v>0.57751404183285748</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4">
-        <v>52</v>
-      </c>
-      <c r="C70" s="5">
-        <v>500</v>
-      </c>
-      <c r="D70" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="13">
-        <v>2</v>
-      </c>
-      <c r="G70" s="13">
-        <v>4</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I70" s="5">
-        <v>1</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="12">
-        <v>3</v>
-      </c>
-      <c r="M70" s="5">
-        <v>1</v>
-      </c>
-      <c r="N70" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="O70" s="5">
-        <v>2222.317</v>
-      </c>
-      <c r="P70" s="5">
-        <v>1159</v>
-      </c>
-      <c r="Q70" s="5">
-        <v>10</v>
-      </c>
-      <c r="R70" s="5">
-        <f>(P70-Q70)/(O70-N70)</f>
-        <v>0.51728073307098621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4">
-        <v>56</v>
-      </c>
-      <c r="C71" s="5">
-        <v>500</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="13">
-        <v>2</v>
-      </c>
-      <c r="G71" s="13">
-        <v>4</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="5">
-        <v>1</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="12">
-        <v>3</v>
-      </c>
-      <c r="M71" s="5">
-        <v>1</v>
-      </c>
-      <c r="N71" s="5">
-        <v>1.117</v>
-      </c>
-      <c r="O71" s="5">
-        <v>2138.1129999999998</v>
-      </c>
-      <c r="P71" s="5">
-        <v>1152</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>12</v>
-      </c>
-      <c r="R71" s="5">
-        <f>(P71-Q71)/(O71-N71)</f>
-        <v>0.53345911737785201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4">
-        <v>54</v>
-      </c>
-      <c r="C72" s="5">
-        <v>500</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="13">
-        <v>2</v>
-      </c>
-      <c r="G72" s="13">
-        <v>4</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="5">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="12">
-        <v>3</v>
-      </c>
-      <c r="M72" s="5">
-        <v>1</v>
-      </c>
-      <c r="N72" s="5">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="O72" s="5">
-        <v>2229.4209999999998</v>
-      </c>
-      <c r="P72" s="5">
-        <v>1159</v>
-      </c>
-      <c r="Q72" s="5">
-        <v>8</v>
-      </c>
-      <c r="R72" s="5">
-        <f>(P72-Q72)/(O72-N72)</f>
-        <v>0.5165558158530128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>18</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="5">
-        <v>500</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="13">
-        <v>2</v>
-      </c>
-      <c r="G73" s="13">
-        <v>4</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="5">
-        <v>1</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="12">
-        <v>3</v>
-      </c>
-      <c r="M73" s="5">
-        <v>1</v>
-      </c>
-      <c r="N73" s="10">
-        <f>AVERAGE(N70:N72)</f>
-        <v>1.1346666666666667</v>
-      </c>
-      <c r="O73" s="10">
-        <f>AVERAGE(O70:O72)</f>
-        <v>2196.6170000000002</v>
-      </c>
-      <c r="P73" s="10">
-        <f>AVERAGE(P70:P72)</f>
-        <v>1156.6666666666667</v>
-      </c>
-      <c r="Q73" s="10">
-        <f>AVERAGE(Q70:Q72)</f>
-        <v>10</v>
-      </c>
-      <c r="R73" s="10">
-        <f>AVERAGE(R70:R72)</f>
-        <v>0.52243188876728364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4">
-        <v>55</v>
-      </c>
-      <c r="C74" s="5">
-        <v>500</v>
-      </c>
-      <c r="D74" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="13">
-        <v>2</v>
-      </c>
-      <c r="G74" s="13">
-        <v>6</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="12">
-        <v>3</v>
-      </c>
-      <c r="M74" s="5">
-        <v>1</v>
-      </c>
-      <c r="N74" s="5">
-        <v>1.238</v>
-      </c>
-      <c r="O74" s="5">
-        <v>2261.0030000000002</v>
-      </c>
-      <c r="P74" s="5">
-        <v>1187</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>9</v>
-      </c>
-      <c r="R74" s="5">
-        <f>(P74-Q74)/(O74-N74)</f>
-        <v>0.52129314331357457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4">
-        <v>56</v>
-      </c>
-      <c r="C75" s="5">
-        <v>500</v>
-      </c>
-      <c r="D75" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="13">
-        <v>2</v>
-      </c>
-      <c r="G75" s="13">
-        <v>6</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="5">
-        <v>1</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" s="12">
-        <v>3</v>
-      </c>
-      <c r="M75" s="5">
-        <v>1</v>
-      </c>
-      <c r="N75" s="5">
-        <v>1.141</v>
-      </c>
-      <c r="O75" s="5">
-        <v>2235.7379999999998</v>
-      </c>
-      <c r="P75" s="5">
-        <v>1183</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>4</v>
-      </c>
-      <c r="R75" s="5">
-        <f>(P75-Q75)/(O75-N75)</f>
-        <v>0.52761191391557405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4">
-        <v>57</v>
-      </c>
-      <c r="C76" s="5">
-        <v>500</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="13">
-        <v>2</v>
-      </c>
-      <c r="G76" s="13">
-        <v>6</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="5">
-        <v>1</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" s="12">
-        <v>3</v>
-      </c>
-      <c r="M76" s="5">
-        <v>1</v>
-      </c>
-      <c r="N76" s="5">
-        <v>1.18</v>
-      </c>
-      <c r="O76" s="5">
-        <v>2220.915</v>
-      </c>
-      <c r="P76" s="5">
-        <v>1151</v>
-      </c>
-      <c r="Q76" s="5">
-        <v>12</v>
-      </c>
-      <c r="R76" s="5">
-        <f>(P76-Q76)/(O76-N76)</f>
-        <v>0.51312431438887973</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>19</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="5">
-        <v>500</v>
-      </c>
-      <c r="D77" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="13">
-        <v>2</v>
-      </c>
-      <c r="G77" s="13">
-        <v>6</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="5">
-        <v>1</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" s="12">
-        <v>3</v>
-      </c>
-      <c r="M77" s="5">
-        <v>1</v>
-      </c>
-      <c r="N77" s="10">
-        <f>AVERAGE(N66:N68)</f>
-        <v>1.0226666666666666</v>
-      </c>
-      <c r="O77" s="10">
-        <f>AVERAGE(O66:O68)</f>
-        <v>1980.7653333333335</v>
-      </c>
-      <c r="P77" s="10">
-        <f>AVERAGE(P66:P68)</f>
-        <v>1159</v>
-      </c>
-      <c r="Q77" s="10">
-        <f>AVERAGE(Q66:Q68)</f>
-        <v>15.666666666666666</v>
-      </c>
-      <c r="R77" s="10">
-        <f>AVERAGE(R66:R68)</f>
-        <v>0.57751404183285748</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4">
-        <v>58</v>
-      </c>
-      <c r="C78" s="5">
-        <v>500</v>
-      </c>
-      <c r="D78" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="12">
-        <v>1</v>
-      </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="5">
-        <v>1</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" s="12">
-        <v>3</v>
-      </c>
-      <c r="M78" s="13">
-        <v>1</v>
-      </c>
-      <c r="N78" s="5">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="O78" s="5">
-        <v>1776.14</v>
-      </c>
-      <c r="P78" s="5">
-        <v>1151</v>
-      </c>
-      <c r="Q78" s="5">
-        <v>14</v>
-      </c>
-      <c r="R78" s="5">
-        <f>(P78-Q78)/(O78-N78)</f>
-        <v>0.64050528374609395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4">
-        <v>59</v>
-      </c>
-      <c r="C79" s="5">
-        <v>500</v>
-      </c>
-      <c r="D79" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="12">
-        <v>1</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="5">
-        <v>1</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L79" s="12">
-        <v>3</v>
-      </c>
-      <c r="M79" s="13">
-        <v>1</v>
-      </c>
-      <c r="N79" s="5">
-        <v>1.129</v>
-      </c>
-      <c r="O79" s="5">
-        <v>2153.683</v>
-      </c>
-      <c r="P79" s="5">
-        <v>1165</v>
-      </c>
-      <c r="Q79" s="5">
-        <v>14</v>
-      </c>
-      <c r="R79" s="5">
-        <f>(P79-Q79)/(O79-N79)</f>
-        <v>0.53471364713730751</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4">
-        <v>60</v>
-      </c>
-      <c r="C80" s="5">
-        <v>500</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="12">
-        <v>1</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I80" s="5">
-        <v>1</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="12">
-        <v>3</v>
-      </c>
-      <c r="M80" s="13">
-        <v>1</v>
-      </c>
-      <c r="N80" s="5">
-        <v>1.125</v>
-      </c>
-      <c r="O80" s="5">
-        <v>2200.1669999999999</v>
-      </c>
-      <c r="P80" s="5">
-        <v>1156</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>13</v>
-      </c>
-      <c r="R80" s="5">
-        <f>(P80-Q80)/(O80-N80)</f>
-        <v>0.51977179153467734</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
-        <v>20</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="5">
-        <v>500</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="12">
-        <v>1</v>
-      </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" s="5">
-        <v>1</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="12">
-        <v>3</v>
-      </c>
-      <c r="M81" s="13">
-        <v>1</v>
-      </c>
-      <c r="N81" s="10">
-        <f>AVERAGE(N78:N80)</f>
-        <v>1.0776666666666668</v>
-      </c>
-      <c r="O81" s="10">
-        <f>AVERAGE(O78:O80)</f>
-        <v>2043.33</v>
-      </c>
-      <c r="P81" s="10">
-        <f>AVERAGE(P78:P80)</f>
-        <v>1157.3333333333333</v>
-      </c>
-      <c r="Q81" s="10">
-        <f>AVERAGE(Q78:Q80)</f>
-        <v>13.666666666666666</v>
-      </c>
-      <c r="R81" s="10">
-        <f>AVERAGE(R78:R80)</f>
-        <v>0.56499690747269293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4">
-        <v>61</v>
-      </c>
-      <c r="C82" s="5">
-        <v>500</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="12">
-        <v>1</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" s="12">
-        <v>3</v>
-      </c>
-      <c r="M82" s="13">
-        <v>2</v>
-      </c>
-      <c r="N82" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="O82" s="5">
-        <v>159.41300000000001</v>
-      </c>
-      <c r="P82" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="5">
-        <v>0</v>
-      </c>
-      <c r="R82" s="5">
-        <f>(P82-Q82)/(O82-N82)</f>
-        <v>1.2629212631738475E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4">
-        <v>62</v>
-      </c>
-      <c r="C83" s="5">
-        <v>500</v>
-      </c>
-      <c r="D83" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="12">
-        <v>1</v>
-      </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="5">
-        <v>1</v>
-      </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" s="12">
-        <v>3</v>
-      </c>
-      <c r="M83" s="13">
-        <v>2</v>
-      </c>
-      <c r="N83" s="5">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="O83" s="5">
-        <v>466.58800000000002</v>
-      </c>
-      <c r="P83" s="5">
-        <v>12</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>0</v>
-      </c>
-      <c r="R83" s="5">
-        <f>(P83-Q83)/(O83-N83)</f>
-        <v>2.5783163594173004E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4">
-        <v>63</v>
-      </c>
-      <c r="C84" s="5">
-        <v>500</v>
-      </c>
-      <c r="D84" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="12">
-        <v>1</v>
-      </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="5">
-        <v>1</v>
-      </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" s="12">
-        <v>3</v>
-      </c>
-      <c r="M84" s="13">
-        <v>2</v>
-      </c>
-      <c r="N84" s="5">
-        <v>1.131</v>
-      </c>
-      <c r="O84" s="5">
-        <v>2216.442</v>
-      </c>
-      <c r="P84" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q84" s="5">
-        <v>4</v>
-      </c>
-      <c r="R84" s="5">
-        <f>(P84-Q84)/(O84-N84)</f>
-        <v>3.1598272206475749E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
-        <v>21</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="5">
-        <v>500</v>
-      </c>
-      <c r="D85" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="12">
-        <v>1</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" s="5">
-        <v>1</v>
-      </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="12">
-        <v>3</v>
-      </c>
-      <c r="M85" s="13">
-        <v>2</v>
-      </c>
-      <c r="N85" s="10">
-        <f>AVERAGE(N82:N84)</f>
-        <v>1.1163333333333334</v>
-      </c>
-      <c r="O85" s="10">
-        <f>AVERAGE(O82:O84)</f>
-        <v>947.48100000000011</v>
-      </c>
-      <c r="P85" s="10">
-        <f>AVERAGE(P82:P84)</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="Q85" s="10">
-        <f>AVERAGE(Q82:Q84)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="R85" s="10">
-        <f>AVERAGE(R82:R84)</f>
         <v>1.3857401148853019E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -8574,7 +7744,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,11 +8754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ABA020-E28E-457F-B26B-127756F79BA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9596,7 +8766,7 @@
     <col min="1" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9619,10 +8789,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>13</v>
@@ -9640,13 +8810,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
@@ -9664,22 +8834,30 @@
       <c r="I2" s="21">
         <v>50</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5" t="e">
+      <c r="J2" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49.860999999999997</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1259</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <f>(L2-M2)/(K2-J2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>25.267932404768594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
@@ -9697,22 +8875,30 @@
       <c r="I3" s="21">
         <v>50</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="e">
+      <c r="J3" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>199.316</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1339</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
         <f>(L3-M3)/(K3-J3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.7091866177570143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="19">
         <v>1</v>
@@ -9730,22 +8916,30 @@
       <c r="I4" s="21">
         <v>50</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="e">
+      <c r="J4" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>201.29499999999999</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1371</v>
+      </c>
+      <c r="M4" s="5">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5">
         <f>(L4-M4)/(K4-J4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.7130101216888374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -9763,34 +8957,34 @@
       <c r="I5" s="21">
         <v>50</v>
       </c>
-      <c r="J5" s="9" t="e">
+      <c r="J5" s="9">
         <f>AVERAGE(J2:J4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="10" t="e">
+        <v>3.8666666666666669E-2</v>
+      </c>
+      <c r="K5" s="10">
         <f>AVERAGE(K2:K4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="10" t="e">
+        <v>150.15733333333333</v>
+      </c>
+      <c r="L5" s="10">
         <f>AVERAGE(L2:L4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="10" t="e">
+        <v>1323</v>
+      </c>
+      <c r="M5" s="10">
         <f>AVERAGE(M2:M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="10" t="e">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="N5" s="10">
         <f>AVERAGE(N2:N4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12.896709714738149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
@@ -9810,22 +9004,30 @@
       <c r="I6" s="21">
         <v>50</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5" t="e">
+      <c r="J6" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>191.60599999999999</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1189</v>
+      </c>
+      <c r="M6" s="6">
+        <v>59</v>
+      </c>
+      <c r="N6" s="5">
         <f>(L6-M6)/(K6-J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.8985347622055295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
@@ -9845,22 +9047,30 @@
       <c r="I7" s="21">
         <v>50</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="e">
+      <c r="J7" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>192.59200000000001</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1314</v>
+      </c>
+      <c r="M7" s="5">
+        <v>38</v>
+      </c>
+      <c r="N7" s="5">
         <f>(L7-M7)/(K7-J7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.6265404369569838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
@@ -9880,22 +9090,30 @@
       <c r="I8" s="21">
         <v>50</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="e">
+      <c r="J8" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>193.21799999999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1320</v>
+      </c>
+      <c r="M8" s="5">
+        <v>34</v>
+      </c>
+      <c r="N8" s="5">
         <f>(L8-M8)/(K8-J8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.6569693706938056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
@@ -9915,34 +9133,34 @@
       <c r="I9" s="21">
         <v>50</v>
       </c>
-      <c r="J9" s="9" t="e">
+      <c r="J9" s="9">
         <f>AVERAGE(J6:J8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="10" t="e">
+        <v>3.4333333333333334E-2</v>
+      </c>
+      <c r="K9" s="10">
         <f>AVERAGE(K6:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="10" t="e">
+        <v>192.47199999999998</v>
+      </c>
+      <c r="L9" s="10">
         <f>AVERAGE(L6:L8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="10" t="e">
+        <v>1274.3333333333333</v>
+      </c>
+      <c r="M9" s="10">
         <f>AVERAGE(M6:M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="10" t="e">
+        <v>43.666666666666664</v>
+      </c>
+      <c r="N9" s="10">
         <f>AVERAGE(N6:N8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.3940148566187736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D10" s="21">
         <v>1</v>
@@ -9960,22 +9178,30 @@
       <c r="I10" s="21">
         <v>50</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5" t="e">
+      <c r="J10" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>196.33799999999999</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1246</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5">
         <f>(L10-M10)/(K10-J10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.3269859705963265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
@@ -9993,22 +9219,30 @@
       <c r="I11" s="21">
         <v>50</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="e">
+      <c r="J11" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>63.030999999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1421</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <f>(L11-M11)/(K11-J11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>22.555913585929936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="21">
         <v>1</v>
@@ -10026,22 +9260,30 @@
       <c r="I12" s="21">
         <v>50</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="e">
+      <c r="J12" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>82.935000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1194</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <f>(L12-M12)/(K12-J12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14.403068794557232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>3</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -10059,34 +9301,34 @@
       <c r="I13" s="21">
         <v>50</v>
       </c>
-      <c r="J13" s="9" t="e">
+      <c r="J13" s="9">
         <f>AVERAGE(J10:J12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="10" t="e">
+        <v>3.4666666666666672E-2</v>
+      </c>
+      <c r="K13" s="10">
         <f>AVERAGE(K10:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="10" t="e">
+        <v>114.10133333333333</v>
+      </c>
+      <c r="L13" s="10">
         <f>AVERAGE(L10:L12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="10" t="e">
+        <v>1287</v>
+      </c>
+      <c r="M13" s="10">
         <f>AVERAGE(M10:M12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="10" t="e">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N13" s="10">
         <f>AVERAGE(N10:N12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14.428656117027833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>10</v>
       </c>
       <c r="C14" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="21">
         <v>1</v>
@@ -10104,22 +9346,30 @@
       <c r="I14" s="21">
         <v>50</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5" t="e">
+      <c r="J14" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>161.74100000000001</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1245</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <f>(L14-M14)/(K14-J14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7.6993481836959337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>11</v>
       </c>
       <c r="C15" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="21">
         <v>1</v>
@@ -10137,22 +9387,30 @@
       <c r="I15" s="21">
         <v>50</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5" t="e">
+      <c r="J15" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>205.53800000000001</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1243</v>
+      </c>
+      <c r="M15" s="5">
+        <v>4</v>
+      </c>
+      <c r="N15" s="5">
         <f>(L15-M15)/(K15-J15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.0290210504802779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>12</v>
       </c>
       <c r="C16" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D16" s="21">
         <v>1</v>
@@ -10170,22 +9428,30 @@
       <c r="I16" s="21">
         <v>50</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="e">
+      <c r="J16" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>197.64699999999999</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1316</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2</v>
+      </c>
+      <c r="N16" s="5">
         <f>(L16-M16)/(K16-J16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.649326464724159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>4</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -10203,34 +9469,34 @@
       <c r="I17" s="21">
         <v>50</v>
       </c>
-      <c r="J17" s="9" t="e">
+      <c r="J17" s="9">
         <f>AVERAGE(J14:J16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="10" t="e">
+        <v>3.4666666666666672E-2</v>
+      </c>
+      <c r="K17" s="10">
         <f>AVERAGE(K14:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="10" t="e">
+        <v>188.30866666666665</v>
+      </c>
+      <c r="L17" s="10">
         <f>AVERAGE(L14:L16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="10" t="e">
+        <v>1268</v>
+      </c>
+      <c r="M17" s="10">
         <f>AVERAGE(M14:M16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="10" t="e">
+        <v>2</v>
+      </c>
+      <c r="N17" s="10">
         <f>AVERAGE(N14:N16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.7925652329667905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
       </c>
       <c r="C18" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D18" s="21">
         <v>1</v>
@@ -10248,22 +9514,30 @@
       <c r="I18" s="21">
         <v>50</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5" t="e">
+      <c r="J18" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>247.02</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1308</v>
+      </c>
+      <c r="M18" s="6">
+        <v>8</v>
+      </c>
+      <c r="N18" s="5">
         <f>(L18-M18)/(K18-J18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.2637545956626663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
       </c>
       <c r="C19" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
@@ -10281,22 +9555,30 @@
       <c r="I19" s="21">
         <v>50</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5" t="e">
+      <c r="J19" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>268.77300000000002</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1230</v>
+      </c>
+      <c r="M19" s="5">
+        <v>53</v>
+      </c>
+      <c r="N19" s="5">
         <f>(L19-M19)/(K19-J19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4.3800238166120868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="5">
         <v>15</v>
       </c>
       <c r="C20" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="21">
         <v>1</v>
@@ -10314,25 +9596,33 @@
       <c r="I20" s="21">
         <v>50</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="e">
+      <c r="J20" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>256.17399999999998</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1450</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2</v>
+      </c>
+      <c r="N20" s="5">
         <f>(L20-M20)/(K20-J20)</f>
-        <v>#DIV/0!</v>
+        <v>5.6534453610903972</v>
       </c>
       <c r="Q20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>5</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
@@ -10350,34 +9640,34 @@
       <c r="I21" s="21">
         <v>50</v>
       </c>
-      <c r="J21" s="9" t="e">
+      <c r="J21" s="9">
         <f>AVERAGE(J18:J20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="10" t="e">
+        <v>4.933333333333334E-2</v>
+      </c>
+      <c r="K21" s="10">
         <f>AVERAGE(K18:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="10" t="e">
+        <v>257.32233333333335</v>
+      </c>
+      <c r="L21" s="10">
         <f>AVERAGE(L18:L20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="10" t="e">
+        <v>1329.3333333333333</v>
+      </c>
+      <c r="M21" s="10">
         <f>AVERAGE(M18:M20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="10" t="e">
+        <v>21</v>
+      </c>
+      <c r="N21" s="10">
         <f>AVERAGE(N18:N20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.0990745911217168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="5">
         <v>16</v>
       </c>
       <c r="C22" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="21">
         <v>1</v>
@@ -10395,22 +9685,30 @@
       <c r="I22" s="21">
         <v>50</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="5" t="e">
+      <c r="J22" s="6">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>309.517</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1296</v>
+      </c>
+      <c r="M22" s="6">
+        <v>12</v>
+      </c>
+      <c r="N22" s="5">
         <f>(L22-M22)/(K22-J22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4.1494178211678481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="5">
         <v>17</v>
       </c>
       <c r="C23" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
@@ -10428,22 +9726,30 @@
       <c r="I23" s="21">
         <v>50</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="e">
+      <c r="J23" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>321.33699999999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1268</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2</v>
+      </c>
+      <c r="N23" s="5">
         <f>(L23-M23)/(K23-J23)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.940549373589604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="5">
         <v>18</v>
       </c>
       <c r="C24" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D24" s="21">
         <v>1</v>
@@ -10461,22 +9767,30 @@
       <c r="I24" s="21">
         <v>50</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="e">
+      <c r="J24" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>321.68</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1225</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
         <f>(L24-M24)/(K24-J24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.8026596852778303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>6</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D25" s="21">
         <v>1</v>
@@ -10494,34 +9808,34 @@
       <c r="I25" s="21">
         <v>50</v>
       </c>
-      <c r="J25" s="9" t="e">
+      <c r="J25" s="9">
         <f>AVERAGE(J22:J24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="10" t="e">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K25" s="10">
         <f>AVERAGE(K22:K24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="10" t="e">
+        <v>317.51133333333337</v>
+      </c>
+      <c r="L25" s="10">
         <f>AVERAGE(L22:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="10" t="e">
+        <v>1263</v>
+      </c>
+      <c r="M25" s="10">
         <f>AVERAGE(M22:M24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="10" t="e">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="N25" s="10">
         <f>AVERAGE(N22:N24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.9642089600117614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="5">
         <v>19</v>
       </c>
       <c r="C26" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D26" s="21">
         <v>1</v>
@@ -10539,22 +9853,30 @@
       <c r="I26" s="19">
         <v>100</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5" t="e">
+      <c r="J26" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K26" s="6">
+        <v>29.666</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1390</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
         <f>(L26-M26)/(K26-J26)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>46.964219346555389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="5">
         <v>20</v>
       </c>
       <c r="C27" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D27" s="21">
         <v>1</v>
@@ -10572,22 +9894,30 @@
       <c r="I27" s="19">
         <v>100</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="e">
+      <c r="J27" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>457.822</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1395</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1213</v>
+      </c>
+      <c r="N27" s="5">
         <f>(L27-M27)/(K27-J27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.39759954734820763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="5">
         <v>21</v>
       </c>
       <c r="C28" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D28" s="21">
         <v>1</v>
@@ -10605,22 +9935,30 @@
       <c r="I28" s="19">
         <v>100</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="e">
+      <c r="J28" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>340.72399999999999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1186</v>
+      </c>
+      <c r="M28" s="5">
+        <v>7</v>
+      </c>
+      <c r="N28" s="5">
         <f>(L28-M28)/(K28-J28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.4609287852991257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>7</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D29" s="21">
         <v>1</v>
@@ -10638,34 +9976,34 @@
       <c r="I29" s="19">
         <v>100</v>
       </c>
-      <c r="J29" s="9" t="e">
+      <c r="J29" s="9">
         <f>AVERAGE(J26:J28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="10" t="e">
+        <v>6.9333333333333344E-2</v>
+      </c>
+      <c r="K29" s="10">
         <f>AVERAGE(K26:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="10" t="e">
+        <v>276.07066666666668</v>
+      </c>
+      <c r="L29" s="10">
         <f>AVERAGE(L26:L28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="10" t="e">
+        <v>1323.6666666666667</v>
+      </c>
+      <c r="M29" s="10">
         <f>AVERAGE(M26:M28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="10" t="e">
+        <v>406.66666666666669</v>
+      </c>
+      <c r="N29" s="10">
         <f>AVERAGE(N26:N28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>16.940915893067572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C30" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D30" s="21">
         <v>1</v>
@@ -10683,22 +10021,30 @@
       <c r="I30" s="21">
         <v>100</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="5" t="e">
+      <c r="J30" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K30" s="6">
+        <v>417.62700000000001</v>
+      </c>
+      <c r="L30" s="6">
+        <v>20</v>
+      </c>
+      <c r="M30" s="6">
+        <v>10</v>
+      </c>
+      <c r="N30" s="5">
         <f>(L30-M30)/(K30-J30)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>2.3948367320057954E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="21">
         <v>1</v>
@@ -10716,22 +10062,30 @@
       <c r="I31" s="21">
         <v>100</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5" t="e">
+      <c r="J31" s="5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>395.26900000000001</v>
+      </c>
+      <c r="L31" s="5">
+        <v>12</v>
+      </c>
+      <c r="M31" s="5">
+        <v>6</v>
+      </c>
+      <c r="N31" s="5">
         <f>(L31-M31)/(K31-J31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1.5182109402280352E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C32" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D32" s="21">
         <v>1</v>
@@ -10749,22 +10103,30 @@
       <c r="I32" s="21">
         <v>100</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="e">
+      <c r="J32" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K32" s="5">
+        <v>65.778000000000006</v>
+      </c>
+      <c r="L32" s="5">
+        <v>18</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
         <f>(L32-M32)/(K32-J32)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.27396009314643166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>8</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="21">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="D33" s="21">
         <v>1</v>
@@ -10782,29 +10144,29 @@
       <c r="I33" s="21">
         <v>100</v>
       </c>
-      <c r="J33" s="9" t="e">
+      <c r="J33" s="9">
         <f>AVERAGE(J30:J32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="10" t="e">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K33" s="10">
         <f>AVERAGE(K30:K32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="10" t="e">
+        <v>292.89133333333331</v>
+      </c>
+      <c r="L33" s="10">
         <f>AVERAGE(L30:L32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="10" t="e">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M33" s="10">
         <f>AVERAGE(M30:M32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="10" t="e">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="N33" s="10">
         <f>AVERAGE(N30:N32)</f>
-        <v>#DIV/0!</v>
+        <v>0.10436352328958999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/resource/Tests.xlsx
+++ b/resource/Tests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9F9B0-E79D-4173-A8D2-9CFF4316AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A19DFD1-AEA7-4001-BDCC-AF8A901F55CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="38">
   <si>
     <t># avg</t>
   </si>
@@ -620,7 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4621,7 +4621,942 @@
         <v>1.3857401148853019E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4">
+        <v>52</v>
+      </c>
+      <c r="C70" s="5">
+        <v>500</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="12">
+        <v>1</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L70" s="12">
+        <v>3</v>
+      </c>
+      <c r="M70" s="12">
+        <v>2</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5" t="e">
+        <f>(P70-Q70)/(O70-N70)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4">
+        <v>53</v>
+      </c>
+      <c r="C71" s="5">
+        <v>500</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="12">
+        <v>1</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L71" s="12">
+        <v>3</v>
+      </c>
+      <c r="M71" s="12">
+        <v>2</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5" t="e">
+        <f>(P71-Q71)/(O71-N71)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4">
+        <v>54</v>
+      </c>
+      <c r="C72" s="5">
+        <v>500</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L72" s="12">
+        <v>3</v>
+      </c>
+      <c r="M72" s="12">
+        <v>2</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5" t="e">
+        <f>(P72-Q72)/(O72-N72)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>18</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="5">
+        <v>500</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L73" s="12">
+        <v>3</v>
+      </c>
+      <c r="M73" s="12">
+        <v>2</v>
+      </c>
+      <c r="N73" s="10" t="e">
+        <f>AVERAGE(N70:N72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O73" s="10" t="e">
+        <f>AVERAGE(O70:O72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P73" s="10" t="e">
+        <f>AVERAGE(P70:P72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q73" s="10" t="e">
+        <f>AVERAGE(Q70:Q72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R73" s="10" t="e">
+        <f>AVERAGE(R70:R72)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4">
+        <v>55</v>
+      </c>
+      <c r="C74" s="5">
+        <v>500</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L74" s="12">
+        <v>3</v>
+      </c>
+      <c r="M74" s="12">
+        <v>2</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5" t="e">
+        <f>(P74-Q74)/(O74-N74)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4">
+        <v>56</v>
+      </c>
+      <c r="C75" s="5">
+        <v>500</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L75" s="12">
+        <v>3</v>
+      </c>
+      <c r="M75" s="12">
+        <v>2</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5" t="e">
+        <f>(P75-Q75)/(O75-N75)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4">
+        <v>57</v>
+      </c>
+      <c r="C76" s="5">
+        <v>500</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L76" s="12">
+        <v>3</v>
+      </c>
+      <c r="M76" s="12">
+        <v>2</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5" t="e">
+        <f>(P76-Q76)/(O76-N76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>19</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="5">
+        <v>500</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="12">
+        <v>1</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L77" s="12">
+        <v>3</v>
+      </c>
+      <c r="M77" s="12">
+        <v>2</v>
+      </c>
+      <c r="N77" s="10" t="e">
+        <f>AVERAGE(N74:N76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O77" s="10" t="e">
+        <f>AVERAGE(O74:O76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P77" s="10" t="e">
+        <f>AVERAGE(P74:P76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q77" s="10" t="e">
+        <f>AVERAGE(Q74:Q76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R77" s="10" t="e">
+        <f>AVERAGE(R74:R76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4">
+        <v>58</v>
+      </c>
+      <c r="C78" s="5">
+        <v>500</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="12">
+        <v>1</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="13">
+        <v>2</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L78" s="12">
+        <v>3</v>
+      </c>
+      <c r="M78" s="12">
+        <v>2</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5" t="e">
+        <f>(P78-Q78)/(O78-N78)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4">
+        <v>59</v>
+      </c>
+      <c r="C79" s="5">
+        <v>500</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="12">
+        <v>1</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="13">
+        <v>2</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L79" s="12">
+        <v>3</v>
+      </c>
+      <c r="M79" s="12">
+        <v>2</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5" t="e">
+        <f>(P79-Q79)/(O79-N79)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4">
+        <v>60</v>
+      </c>
+      <c r="C80" s="5">
+        <v>500</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="12">
+        <v>1</v>
+      </c>
+      <c r="G80" s="12"/>
+      <c r="H80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="13">
+        <v>2</v>
+      </c>
+      <c r="J80" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L80" s="12">
+        <v>3</v>
+      </c>
+      <c r="M80" s="12">
+        <v>2</v>
+      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5" t="e">
+        <f>(P80-Q80)/(O80-N80)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>20</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="5">
+        <v>500</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="12">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="13">
+        <v>2</v>
+      </c>
+      <c r="J81" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L81" s="12">
+        <v>3</v>
+      </c>
+      <c r="M81" s="12">
+        <v>2</v>
+      </c>
+      <c r="N81" s="10" t="e">
+        <f>AVERAGE(N78:N80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O81" s="10" t="e">
+        <f>AVERAGE(O78:O80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P81" s="10" t="e">
+        <f>AVERAGE(P78:P80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q81" s="10" t="e">
+        <f>AVERAGE(Q78:Q80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R81" s="10" t="e">
+        <f>AVERAGE(R78:R80)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4">
+        <v>61</v>
+      </c>
+      <c r="C82" s="5">
+        <v>500</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F82" s="12">
+        <v>1</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="K82" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L82" s="12">
+        <v>3</v>
+      </c>
+      <c r="M82" s="12">
+        <v>2</v>
+      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5" t="e">
+        <f>(P82-Q82)/(O82-N82)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4">
+        <v>62</v>
+      </c>
+      <c r="C83" s="5">
+        <v>500</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F83" s="12">
+        <v>1</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L83" s="12">
+        <v>3</v>
+      </c>
+      <c r="M83" s="12">
+        <v>2</v>
+      </c>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5" t="e">
+        <f>(P83-Q83)/(O83-N83)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4">
+        <v>63</v>
+      </c>
+      <c r="C84" s="5">
+        <v>500</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F84" s="12">
+        <v>1</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="K84" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L84" s="12">
+        <v>3</v>
+      </c>
+      <c r="M84" s="12">
+        <v>2</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5" t="e">
+        <f>(P84-Q84)/(O84-N84)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>21</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="5">
+        <v>500</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F85" s="12">
+        <v>1</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="K85" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L85" s="12">
+        <v>3</v>
+      </c>
+      <c r="M85" s="12">
+        <v>2</v>
+      </c>
+      <c r="N85" s="10" t="e">
+        <f>AVERAGE(N82:N84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O85" s="10" t="e">
+        <f>AVERAGE(O82:O84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P85" s="10" t="e">
+        <f>AVERAGE(P82:P84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q85" s="10" t="e">
+        <f>AVERAGE(Q82:Q84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R85" s="10" t="e">
+        <f>AVERAGE(R82:R84)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4">
+        <v>64</v>
+      </c>
+      <c r="C86" s="5">
+        <v>500</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="13">
+        <v>2</v>
+      </c>
+      <c r="G86" s="13">
+        <v>4</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L86" s="12">
+        <v>3</v>
+      </c>
+      <c r="M86" s="12">
+        <v>2</v>
+      </c>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5" t="e">
+        <f>(P86-Q86)/(O86-N86)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4">
+        <v>65</v>
+      </c>
+      <c r="C87" s="5">
+        <v>500</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="13">
+        <v>2</v>
+      </c>
+      <c r="G87" s="13">
+        <v>4</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L87" s="12">
+        <v>3</v>
+      </c>
+      <c r="M87" s="12">
+        <v>2</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5" t="e">
+        <f>(P87-Q87)/(O87-N87)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4">
+        <v>66</v>
+      </c>
+      <c r="C88" s="5">
+        <v>500</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="13">
+        <v>2</v>
+      </c>
+      <c r="G88" s="13">
+        <v>4</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L88" s="12">
+        <v>3</v>
+      </c>
+      <c r="M88" s="12">
+        <v>2</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5" t="e">
+        <f>(P88-Q88)/(O88-N88)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>22</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="5">
+        <v>500</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="13">
+        <v>2</v>
+      </c>
+      <c r="G89" s="13">
+        <v>4</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L89" s="12">
+        <v>3</v>
+      </c>
+      <c r="M89" s="12">
+        <v>2</v>
+      </c>
+      <c r="N89" s="10" t="e">
+        <f>AVERAGE(N86:N88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O89" s="10" t="e">
+        <f>AVERAGE(O86:O88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P89" s="10" t="e">
+        <f>AVERAGE(P86:P88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q89" s="10" t="e">
+        <f>AVERAGE(Q86:Q88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R89" s="10" t="e">
+        <f>AVERAGE(R86:R88)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
